--- a/ZOMATO.xlsx
+++ b/ZOMATO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e609fdbd93d202da/Desktop/Models/India Equity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1596" documentId="8_{920CA272-DBE2-4A3B-AD8D-8F390F5B7B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97FDD6DA-8C22-41CE-8EDA-34552B4CFA55}"/>
+  <xr:revisionPtr revIDLastSave="1798" documentId="8_{920CA272-DBE2-4A3B-AD8D-8F390F5B7B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C750B7BC-886D-444B-B2C7-EAEC5141F15A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{6B3608B9-C142-4CC8-AC00-3D29641392E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{6B3608B9-C142-4CC8-AC00-3D29641392E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -477,9 +477,6 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Finance Cost growth</t>
   </si>
   <si>
@@ -496,6 +493,9 @@
   </si>
   <si>
     <t>SIT/Sales</t>
+  </si>
+  <si>
+    <t>Return</t>
   </si>
 </sst>
 </file>
@@ -626,56 +626,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFB55DF-40E8-2596-C1A7-929F7061A304}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10539413" y="9525"/>
-          <a:ext cx="0" cy="14820900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -702,6 +652,56 @@
         <a:xfrm>
           <a:off x="19716750" y="47625"/>
           <a:ext cx="0" cy="10772775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>719137</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>719137</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDF7F74-F4E1-5E48-53BC-48A8CB2A3439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11287125" y="0"/>
+          <a:ext cx="0" cy="22864763"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC96EB42-1F91-4E00-BE77-874C1615741D}">
   <dimension ref="B3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>222.47</v>
+        <v>260.02999999999997</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="I6" s="4">
         <f>I4*I5</f>
-        <v>193103.96</v>
+        <v>226226.09999999998</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
@@ -1078,8 +1078,7 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <f>309+422</f>
-        <v>731</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
@@ -1087,8 +1086,7 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <f>588+161</f>
-        <v>749</v>
+        <v>886</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
@@ -1097,7 +1095,7 @@
       </c>
       <c r="I9" s="4">
         <f>I6-I7+I8</f>
-        <v>193121.96</v>
+        <v>226640.09999999998</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
@@ -1144,11 +1142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45962BCD-B6D0-4CDC-A77D-152B992CCD3A}">
   <dimension ref="A1:HA114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP58" sqref="AP58"/>
+      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1156,10 +1154,13 @@
     <col min="2" max="2" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="3" customWidth="1"/>
-    <col min="5" max="15" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" style="3" customWidth="1"/>
     <col min="16" max="22" width="9.06640625" style="3"/>
     <col min="23" max="28" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.06640625" style="3"/>
+    <col min="29" max="41" width="9.06640625" style="3"/>
+    <col min="42" max="42" width="10.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:41" customFormat="1" x14ac:dyDescent="0.45">
@@ -1199,20 +1200,19 @@
       <c r="N1" s="11">
         <v>45382</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="11">
+        <v>45473</v>
+      </c>
+      <c r="P1" s="13">
         <v>1</v>
-      </c>
-      <c r="P1" s="13">
-        <f>O1+1</f>
-        <v>2</v>
       </c>
       <c r="Q1" s="13">
         <f t="shared" ref="Q1:R1" si="0">P1+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R1" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W1" s="11">
         <v>43555</v>
@@ -1489,11 +1489,10 @@
         <v>2050</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:R9" si="2">K6*(1+O15)</f>
-        <v>2241.2000000000003</v>
+        <v>2256</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P6:R9" si="2">L6*(1+P15)</f>
         <v>2519.4</v>
       </c>
       <c r="Q6" s="3">
@@ -1518,43 +1517,43 @@
       </c>
       <c r="AC6" s="3">
         <f>SUM(O6:R6)</f>
-        <v>10106.200000000001</v>
+        <v>10121</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" ref="AD6:AL7" si="3">AC6*(1+AD15)</f>
-        <v>12632.75</v>
+        <v>12651.25</v>
       </c>
       <c r="AE6" s="3">
         <f t="shared" si="3"/>
-        <v>15790.9375</v>
+        <v>15814.0625</v>
       </c>
       <c r="AF6" s="3">
         <f t="shared" si="3"/>
-        <v>19738.671875</v>
+        <v>19767.578125</v>
       </c>
       <c r="AG6" s="3">
         <f t="shared" si="3"/>
-        <v>22699.47265625</v>
+        <v>22732.71484375</v>
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="3"/>
-        <v>26104.393554687496</v>
+        <v>26142.622070312496</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="3"/>
-        <v>30020.052587890619</v>
+        <v>30064.015380859368</v>
       </c>
       <c r="AJ6" s="3">
         <f t="shared" si="3"/>
-        <v>34523.060476074206</v>
+        <v>34573.61768798827</v>
       </c>
       <c r="AK6" s="3">
         <f t="shared" si="3"/>
-        <v>39701.519547485332</v>
+        <v>39759.660341186507</v>
       </c>
       <c r="AL6" s="3">
         <f t="shared" si="3"/>
-        <v>45656.74747960813</v>
+        <v>45723.60939236448</v>
       </c>
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.45">
@@ -1598,8 +1597,7 @@
         <v>951</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="2"/>
-        <v>1110.6000000000001</v>
+        <v>1212</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
@@ -1614,56 +1612,56 @@
         <v>1711.8</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" ref="Z7:Z10" si="4">SUM(C7:F7)</f>
+        <f>SUM(C7:F7)</f>
         <v>541</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" ref="AA7:AA10" si="5">SUM(G7:J7)</f>
+        <f>SUM(G7:J7)</f>
         <v>1506</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" ref="AB7:AB10" si="6">SUM(K7:N7)</f>
+        <f>SUM(K7:N7)</f>
         <v>3172</v>
       </c>
       <c r="AC7" s="3">
-        <f>SUM(O7:R7)</f>
-        <v>5709.6</v>
+        <f t="shared" ref="AC7:AC10" si="4">SUM(O7:R7)</f>
+        <v>5811</v>
       </c>
       <c r="AD7" s="3">
-        <f t="shared" ref="AD7:AL7" si="7">AC7*(1+AD16)</f>
-        <v>8564.4000000000015</v>
+        <f t="shared" ref="AD7:AL7" si="5">AC7*(1+AD16)</f>
+        <v>8716.5</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" si="7"/>
-        <v>12846.600000000002</v>
+        <f t="shared" si="5"/>
+        <v>13074.75</v>
       </c>
       <c r="AF7" s="3">
-        <f t="shared" si="7"/>
-        <v>19269.900000000001</v>
+        <f t="shared" si="5"/>
+        <v>19612.125</v>
       </c>
       <c r="AG7" s="3">
-        <f t="shared" si="7"/>
-        <v>25050.870000000003</v>
+        <f t="shared" si="5"/>
+        <v>25495.762500000001</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="7"/>
-        <v>32566.131000000005</v>
+        <f t="shared" si="5"/>
+        <v>33144.491249999999</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="7"/>
-        <v>42335.970300000008</v>
+        <f t="shared" si="5"/>
+        <v>43087.838625000004</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" si="7"/>
-        <v>55036.761390000014</v>
+        <f t="shared" si="5"/>
+        <v>56014.190212500005</v>
       </c>
       <c r="AK7" s="3">
         <f t="shared" si="3"/>
-        <v>71547.789807000023</v>
+        <v>72818.447276250008</v>
       </c>
       <c r="AL7" s="3">
-        <f t="shared" si="7"/>
-        <v>93012.126749100033</v>
+        <f t="shared" si="5"/>
+        <v>94663.981459125018</v>
       </c>
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.45">
@@ -1707,8 +1705,7 @@
         <v>769</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="2"/>
-        <v>691.2</v>
+        <v>942</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
@@ -1723,56 +1720,56 @@
         <v>1384.2</v>
       </c>
       <c r="Z8" s="3">
+        <f>SUM(C8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>SUM(G8:J8)</f>
+        <v>806</v>
+      </c>
+      <c r="AB8" s="3">
+        <f>SUM(K8:N8)</f>
+        <v>2302</v>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <f t="shared" si="5"/>
-        <v>806</v>
-      </c>
-      <c r="AB8" s="3">
+        <v>4394.3999999999996</v>
+      </c>
+      <c r="AD8" s="3">
+        <f t="shared" ref="AD8:AL8" si="6">AC8*(1+AD17)</f>
+        <v>7470.48</v>
+      </c>
+      <c r="AE8" s="3">
         <f t="shared" si="6"/>
-        <v>2302</v>
-      </c>
-      <c r="AC8" s="3">
-        <f>SUM(O8:R8)</f>
-        <v>4143.6000000000004</v>
-      </c>
-      <c r="AD8" s="3">
-        <f t="shared" ref="AD8:AL8" si="8">AC8*(1+AD17)</f>
-        <v>7044.1200000000008</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" si="8"/>
-        <v>11975.004000000001</v>
+        <v>12699.815999999999</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" si="8"/>
-        <v>20357.506799999999</v>
+        <f t="shared" si="6"/>
+        <v>21589.687199999997</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="8"/>
-        <v>27482.634180000001</v>
+        <f t="shared" si="6"/>
+        <v>29146.077719999997</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="8"/>
-        <v>37101.556143000002</v>
+        <f t="shared" si="6"/>
+        <v>39347.204921999997</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="8"/>
-        <v>50087.100793050005</v>
+        <f t="shared" si="6"/>
+        <v>53118.7266447</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" si="8"/>
-        <v>67617.586070617515</v>
+        <f t="shared" si="6"/>
+        <v>71710.280970345004</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" si="8"/>
-        <v>91283.741195333656</v>
+        <f t="shared" si="6"/>
+        <v>96808.879309965763</v>
       </c>
       <c r="AL8" s="3">
-        <f t="shared" si="8"/>
-        <v>109540.48943440038</v>
+        <f t="shared" si="6"/>
+        <v>116170.65517195892</v>
       </c>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.45">
@@ -1816,8 +1813,7 @@
         <v>93</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="2"/>
-        <v>113.4</v>
+        <v>95</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
@@ -1832,7 +1828,7 @@
         <v>251.10000000000002</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(C9:F9)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="3">
@@ -1840,48 +1836,48 @@
         <v>41</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="6"/>
+        <f>SUM(K9:N9)</f>
         <v>257</v>
       </c>
       <c r="AC9" s="3">
-        <f>SUM(O9:R9)</f>
-        <v>693.90000000000009</v>
+        <f t="shared" si="4"/>
+        <v>675.5</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" ref="AD9:AL9" si="9">AC9*(1+AD18)</f>
-        <v>1734.7500000000002</v>
+        <f t="shared" ref="AD9:AL9" si="7">AC9*(1+AD18)</f>
+        <v>1688.75</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="9"/>
-        <v>4336.8750000000009</v>
+        <f t="shared" si="7"/>
+        <v>4221.875</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" si="9"/>
-        <v>9974.8125000000018</v>
+        <f t="shared" si="7"/>
+        <v>9710.3125</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="9"/>
-        <v>17455.921875000004</v>
+        <f t="shared" si="7"/>
+        <v>16993.046875</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="9"/>
-        <v>30547.863281250007</v>
+        <f t="shared" si="7"/>
+        <v>29737.83203125</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="9"/>
-        <v>53458.760742187515</v>
+        <f t="shared" si="7"/>
+        <v>52041.2060546875</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="9"/>
-        <v>80188.141113281279</v>
+        <f t="shared" si="7"/>
+        <v>78061.80908203125</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="9"/>
-        <v>120282.21166992192</v>
+        <f t="shared" si="7"/>
+        <v>117092.71362304688</v>
       </c>
       <c r="AL9" s="3">
-        <f t="shared" si="9"/>
-        <v>168395.09633789069</v>
+        <f t="shared" si="7"/>
+        <v>163929.79907226563</v>
       </c>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.45">
@@ -1925,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -1937,20 +1933,20 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <f>SUM(C10:F10)</f>
+        <v>237</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>SUM(G10:J10)</f>
+        <v>193</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>SUM(K10:N10)</f>
+        <v>22</v>
+      </c>
+      <c r="AC10" s="3">
         <f t="shared" si="4"/>
-        <v>237</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="5"/>
-        <v>193</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="AC10" s="3">
-        <f>SUM(O10:R10)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD10" s="3">
         <v>0</v>
@@ -1985,11 +1981,11 @@
         <v>108</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" ref="C11:D11" si="10">SUM(C6:C10)</f>
+        <f t="shared" ref="C11:D11" si="8">SUM(C6:C10)</f>
         <v>1160</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1420</v>
       </c>
       <c r="E11" s="8">
@@ -1997,19 +1993,19 @@
         <v>1423</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" ref="F11:I11" si="11">SUM(F6:F10)</f>
+        <f t="shared" ref="F11:I11" si="9">SUM(F6:F10)</f>
         <v>1539</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1810</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2106</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2362</v>
       </c>
       <c r="J11" s="8">
@@ -2017,35 +2013,35 @@
         <v>2414</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" ref="K11:N11" si="12">SUM(K6:K10)</f>
+        <f t="shared" ref="K11:O11" si="10">SUM(K6:K10)</f>
         <v>2768</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3240</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3646</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3873</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" ref="O11" si="13">SUM(O6:O10)</f>
-        <v>4156.3999999999996</v>
+        <f t="shared" si="10"/>
+        <v>4520</v>
       </c>
       <c r="P11" s="8">
-        <f t="shared" ref="P11" si="14">SUM(P6:P10)</f>
+        <f t="shared" ref="P11" si="11">SUM(P6:P10)</f>
         <v>4901.7</v>
       </c>
       <c r="Q11" s="8">
-        <f t="shared" ref="Q11" si="15">SUM(Q6:Q10)</f>
+        <f t="shared" ref="Q11" si="12">SUM(Q6:Q10)</f>
         <v>5583.1</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" ref="R11" si="16">SUM(R6:R10)</f>
+        <f t="shared" ref="R11" si="13">SUM(R6:R10)</f>
         <v>6012.1</v>
       </c>
       <c r="Z11" s="8">
@@ -2053,52 +2049,52 @@
         <v>5542</v>
       </c>
       <c r="AA11" s="8">
-        <f t="shared" ref="AA11:AB11" si="17">SUM(AA6:AA10)</f>
+        <f t="shared" ref="AA11:AB11" si="14">SUM(AA6:AA10)</f>
         <v>8692</v>
       </c>
       <c r="AB11" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>13527</v>
       </c>
       <c r="AC11" s="8">
-        <f t="shared" ref="AC11" si="18">SUM(AC6:AC10)</f>
-        <v>20653.300000000003</v>
+        <f t="shared" ref="AC11" si="15">SUM(AC6:AC10)</f>
+        <v>21016.9</v>
       </c>
       <c r="AD11" s="8">
-        <f t="shared" ref="AD11" si="19">SUM(AD6:AD10)</f>
-        <v>29976.020000000004</v>
+        <f t="shared" ref="AD11" si="16">SUM(AD6:AD10)</f>
+        <v>30526.98</v>
       </c>
       <c r="AE11" s="8">
-        <f t="shared" ref="AE11" si="20">SUM(AE6:AE10)</f>
-        <v>44949.416500000007</v>
+        <f t="shared" ref="AE11" si="17">SUM(AE6:AE10)</f>
+        <v>45810.503499999999</v>
       </c>
       <c r="AF11" s="8">
-        <f t="shared" ref="AF11" si="21">SUM(AF6:AF10)</f>
-        <v>69340.891174999997</v>
+        <f t="shared" ref="AF11" si="18">SUM(AF6:AF10)</f>
+        <v>70679.702825</v>
       </c>
       <c r="AG11" s="8">
-        <f t="shared" ref="AG11" si="22">SUM(AG6:AG10)</f>
-        <v>92688.898711250004</v>
+        <f t="shared" ref="AG11" si="19">SUM(AG6:AG10)</f>
+        <v>94367.601938749998</v>
       </c>
       <c r="AH11" s="8">
-        <f t="shared" ref="AH11" si="23">SUM(AH6:AH10)</f>
-        <v>126319.94397893752</v>
+        <f t="shared" ref="AH11" si="20">SUM(AH6:AH10)</f>
+        <v>128372.1502735625</v>
       </c>
       <c r="AI11" s="8">
-        <f t="shared" ref="AI11" si="24">SUM(AI6:AI10)</f>
-        <v>175901.88442312815</v>
+        <f t="shared" ref="AI11" si="21">SUM(AI6:AI10)</f>
+        <v>178311.78670524689</v>
       </c>
       <c r="AJ11" s="8">
-        <f t="shared" ref="AJ11" si="25">SUM(AJ6:AJ10)</f>
-        <v>237365.54904997302</v>
+        <f t="shared" ref="AJ11" si="22">SUM(AJ6:AJ10)</f>
+        <v>240359.89795286453</v>
       </c>
       <c r="AK11" s="8">
-        <f t="shared" ref="AK11" si="26">SUM(AK6:AK10)</f>
-        <v>322815.26221974095</v>
+        <f t="shared" ref="AK11" si="23">SUM(AK6:AK10)</f>
+        <v>326479.70055044914</v>
       </c>
       <c r="AL11" s="8">
-        <f t="shared" ref="AL11" si="27">SUM(AL6:AL10)</f>
-        <v>416604.46000099927</v>
+        <f t="shared" ref="AL11" si="24">SUM(AL6:AL10)</f>
+        <v>420488.04509571404</v>
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.45">
@@ -2142,19 +2138,18 @@
         <v>278</v>
       </c>
       <c r="O12" s="3">
-        <f>K12</f>
-        <v>370</v>
+        <v>261</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" ref="P12:R12" si="28">L12</f>
+        <f>L12</f>
         <v>379</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="28"/>
+        <f>M12</f>
         <v>321</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" si="28"/>
+        <f>N12</f>
         <v>278</v>
       </c>
       <c r="Z12" s="3">
@@ -2171,43 +2166,43 @@
       </c>
       <c r="AC12" s="3">
         <f>SUM(O12:R12)</f>
-        <v>1348</v>
+        <v>1239</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" ref="AD12:AL13" si="29">SUM(P12:S12)</f>
-        <v>978</v>
+        <f>AC12</f>
+        <v>1239</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="29"/>
-        <v>599</v>
+        <f t="shared" ref="AE12:AL12" si="25">AD12</f>
+        <v>1239</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="29"/>
-        <v>278</v>
+        <f t="shared" si="25"/>
+        <v>1239</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1239</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1239</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1239</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1239</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="29"/>
-        <v>1360</v>
+        <f t="shared" si="25"/>
+        <v>1239</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" si="29"/>
-        <v>2978</v>
+        <f t="shared" si="25"/>
+        <v>1239</v>
       </c>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.45">
@@ -2230,7 +2225,7 @@
         <v>33</v>
       </c>
       <c r="O13" s="3">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="P13" s="3">
         <v>35</v>
@@ -2247,43 +2242,43 @@
       </c>
       <c r="AC13" s="3">
         <f>SUM(O13:R13)</f>
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="29"/>
-        <v>105</v>
+        <f>AC13</f>
+        <v>158</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="29"/>
-        <v>70</v>
+        <f t="shared" ref="AE13:AL13" si="26">AD13</f>
+        <v>158</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="29"/>
-        <v>35</v>
+        <f t="shared" si="26"/>
+        <v>158</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>158</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>158</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>158</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>158</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>158</v>
       </c>
       <c r="AL13" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.45">
@@ -2298,39 +2293,40 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12">
-        <f t="shared" ref="G15:N16" si="30">G6/C6-1</f>
+        <f t="shared" ref="G15:M16" si="27">G6/C6-1</f>
         <v>0.42718446601941751</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.26479999999999992</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.3041666666666667</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.19158878504672905</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.17278911564625843</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.22580645161290325</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.31757188498402567</v>
       </c>
       <c r="N15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="N15:O18" si="28">N6/J6-1</f>
         <v>0.33986928104575154</v>
       </c>
       <c r="O15" s="12">
-        <v>0.3</v>
+        <f t="shared" si="28"/>
+        <v>0.308584686774942</v>
       </c>
       <c r="P15" s="12">
         <v>0.3</v>
@@ -2342,16 +2338,16 @@
         <v>0.3</v>
       </c>
       <c r="AA15" s="12">
-        <f t="shared" ref="AA15:AC16" si="31">AA6/Z6-1</f>
+        <f t="shared" ref="AA15:AC16" si="29">AA6/Z6-1</f>
         <v>0.29009235936188071</v>
       </c>
       <c r="AB15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0.26488773185811909</v>
       </c>
       <c r="AC15" s="12">
-        <f t="shared" si="31"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="29"/>
+        <v>0.30190378183689215</v>
       </c>
       <c r="AD15" s="12">
         <v>0.25</v>
@@ -2390,39 +2386,40 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>2.4125000000000001</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>2.0363636363636362</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1.6815286624203822</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1.463917525773196</v>
       </c>
       <c r="K16" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1.26007326007326</v>
       </c>
       <c r="L16" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1.2305389221556888</v>
       </c>
       <c r="M16" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1.0403800475059382</v>
       </c>
       <c r="N16" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0.98953974895397478</v>
       </c>
       <c r="O16" s="12">
-        <v>0.8</v>
+        <f t="shared" si="28"/>
+        <v>0.96434359805510539</v>
       </c>
       <c r="P16" s="12">
         <v>0.8</v>
@@ -2434,16 +2431,16 @@
         <v>0.8</v>
       </c>
       <c r="AA16" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1.7837338262476896</v>
       </c>
       <c r="AB16" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1.1062416998671978</v>
       </c>
       <c r="AC16" s="12">
-        <f t="shared" si="31"/>
-        <v>0.8</v>
+        <f t="shared" si="29"/>
+        <v>0.83196721311475419</v>
       </c>
       <c r="AD16" s="12">
         <v>0.5</v>
@@ -2495,11 +2492,12 @@
         <v>1.13953488372093</v>
       </c>
       <c r="N17" s="12">
-        <f>N8/J8-1</f>
+        <f t="shared" si="28"/>
         <v>1.1184573002754821</v>
       </c>
       <c r="O17" s="12">
-        <v>0.8</v>
+        <f t="shared" si="28"/>
+        <v>1.453125</v>
       </c>
       <c r="P17" s="12">
         <v>0.8</v>
@@ -2516,7 +2514,7 @@
       </c>
       <c r="AC17" s="12">
         <f>AC8/AB8-1</f>
-        <v>0.80000000000000027</v>
+        <v>0.90894874022589045</v>
       </c>
       <c r="AD17" s="12">
         <v>0.7</v>
@@ -2562,11 +2560,12 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12">
-        <f>N9/J9-1</f>
+        <f t="shared" si="28"/>
         <v>1.2682926829268291</v>
       </c>
       <c r="O18" s="12">
-        <v>1.7</v>
+        <f t="shared" si="28"/>
+        <v>1.2619047619047619</v>
       </c>
       <c r="P18" s="12">
         <v>1.7</v>
@@ -2583,7 +2582,7 @@
       </c>
       <c r="AC18" s="12">
         <f>AC9/AB9-1</f>
-        <v>1.7000000000000002</v>
+        <v>1.6284046692607004</v>
       </c>
       <c r="AD18" s="12">
         <v>1.5</v>
@@ -2658,18 +2657,18 @@
       </c>
       <c r="O20" s="3">
         <f>O11-O12-O13</f>
-        <v>3751.3999999999996</v>
+        <v>4206</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" ref="P20:R20" si="32">P11-P12-P13</f>
+        <f t="shared" ref="P20:R20" si="30">P11-P12-P13</f>
         <v>4487.7</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>5227.1000000000004</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>5699.1</v>
       </c>
       <c r="W20" s="3">
@@ -2693,43 +2692,43 @@
       </c>
       <c r="AC20" s="3">
         <f>SUM(O20:R20)</f>
-        <v>19165.3</v>
+        <v>19619.900000000001</v>
       </c>
       <c r="AD20" s="3">
         <f>AD11-AD12-AD13</f>
-        <v>28893.020000000004</v>
+        <v>29129.98</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" ref="AE20:AL20" si="33">AE11-AE12-AE13</f>
-        <v>44280.416500000007</v>
+        <f t="shared" ref="AE20:AL20" si="31">AE11-AE12-AE13</f>
+        <v>44413.503499999999</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="33"/>
-        <v>69027.891174999997</v>
+        <f t="shared" si="31"/>
+        <v>69282.702825</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" si="33"/>
-        <v>92688.898711250004</v>
+        <f t="shared" si="31"/>
+        <v>92970.601938749998</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="33"/>
-        <v>126319.94397893752</v>
+        <f t="shared" si="31"/>
+        <v>126975.1502735625</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="33"/>
-        <v>175901.88442312815</v>
+        <f t="shared" si="31"/>
+        <v>176914.78670524689</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" si="33"/>
-        <v>237365.54904997302</v>
+        <f t="shared" si="31"/>
+        <v>238962.89795286453</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="33"/>
-        <v>321455.26221974095</v>
+        <f t="shared" si="31"/>
+        <v>325082.70055044914</v>
       </c>
       <c r="AL20" s="3">
-        <f t="shared" si="33"/>
-        <v>413626.46000099927</v>
+        <f t="shared" si="31"/>
+        <v>419091.04509571404</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.45">
@@ -2772,6 +2771,9 @@
       <c r="N21" s="3">
         <v>235</v>
       </c>
+      <c r="O21" s="3">
+        <v>236</v>
+      </c>
       <c r="W21" s="3">
         <v>92.207999999999998</v>
       </c>
@@ -2792,43 +2794,44 @@
         <v>847</v>
       </c>
       <c r="AC21" s="3">
-        <v>0</v>
+        <f>SUM(O21:R21)</f>
+        <v>236</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" ref="AD21:AL21" si="34">AC52*$AP$55</f>
-        <v>10.032701268989985</v>
+        <f t="shared" ref="AD21:AL21" si="32">AC52*$AP$55</f>
+        <v>5.2233914159999939</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="34"/>
-        <v>53.127979785850883</v>
+        <f t="shared" si="32"/>
+        <v>51.440395080298785</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="34"/>
-        <v>135.16400801595464</v>
+        <f t="shared" si="32"/>
+        <v>138.89702196016347</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="34"/>
-        <v>285.05131187274429</v>
+        <f t="shared" si="32"/>
+        <v>299.28217140110741</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="34"/>
-        <v>490.36993391069524</v>
+        <f t="shared" si="32"/>
+        <v>519.03773221693223</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="34"/>
-        <v>790.49408929983792</v>
+        <f t="shared" si="32"/>
+        <v>841.52150244387508</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="34"/>
-        <v>1220.1438410427218</v>
+        <f t="shared" si="32"/>
+        <v>1303.6364965603477</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="34"/>
-        <v>1817.4079677826408</v>
+        <f t="shared" si="32"/>
+        <v>1946.8620467052524</v>
       </c>
       <c r="AL21" s="3">
-        <f t="shared" si="34"/>
-        <v>2625.9983941986461</v>
+        <f t="shared" si="32"/>
+        <v>2822.6150154923675</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.45">
@@ -2836,43 +2839,43 @@
         <v>18</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:L22" si="35">C20+C21</f>
+        <f t="shared" ref="C22:L22" si="33">C20+C21</f>
         <v>916.6</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1161</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" ref="E22" si="36">E20+E21</f>
+        <f t="shared" ref="E22" si="34">E20+E21</f>
         <v>1259.7</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22" si="37">F20+F21</f>
+        <f t="shared" ref="F22" si="35">F20+F21</f>
         <v>1350.01</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" ref="G22" si="38">G20+G21</f>
+        <f t="shared" ref="G22" si="36">G20+G21</f>
         <v>1582</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ref="H22" si="39">H20+H21</f>
+        <f t="shared" ref="H22" si="37">H20+H21</f>
         <v>1831</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" ref="I22" si="40">I20+I21</f>
+        <f t="shared" ref="I22" si="38">I20+I21</f>
         <v>2121.6</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2227</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2597</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3060</v>
       </c>
       <c r="M22" s="8">
@@ -2885,34 +2888,34 @@
       </c>
       <c r="O22" s="8">
         <f>O20+O21</f>
-        <v>3751.3999999999996</v>
+        <v>4442</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" ref="P22:R22" si="41">P20+P21</f>
+        <f t="shared" ref="P22:R22" si="39">P20+P21</f>
         <v>4487.7</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>5227.1000000000004</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>5699.1</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" ref="W22:Z22" si="42">W20+W21</f>
+        <f t="shared" ref="W22:Z22" si="40">W20+W21</f>
         <v>1255.0820000000001</v>
       </c>
       <c r="X22" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>2485.7600000000002</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>2118.4</v>
       </c>
       <c r="Z22" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4686.5999999999995</v>
       </c>
       <c r="AA22" s="8">
@@ -2924,44 +2927,44 @@
         <v>12961</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" ref="AC22:AL22" si="43">AC20+AC21</f>
-        <v>19165.3</v>
+        <f t="shared" ref="AC22:AL22" si="41">AC20+AC21</f>
+        <v>19855.900000000001</v>
       </c>
       <c r="AD22" s="8">
-        <f t="shared" si="43"/>
-        <v>28903.052701268993</v>
+        <f t="shared" si="41"/>
+        <v>29135.203391415998</v>
       </c>
       <c r="AE22" s="8">
-        <f t="shared" si="43"/>
-        <v>44333.544479785858</v>
+        <f t="shared" si="41"/>
+        <v>44464.943895080294</v>
       </c>
       <c r="AF22" s="8">
-        <f t="shared" si="43"/>
-        <v>69163.055183015953</v>
+        <f t="shared" si="41"/>
+        <v>69421.599846960162</v>
       </c>
       <c r="AG22" s="8">
-        <f t="shared" si="43"/>
-        <v>92973.950023122743</v>
+        <f t="shared" si="41"/>
+        <v>93269.884110151106</v>
       </c>
       <c r="AH22" s="8">
-        <f t="shared" si="43"/>
-        <v>126810.31391284821</v>
+        <f t="shared" si="41"/>
+        <v>127494.18800577943</v>
       </c>
       <c r="AI22" s="8">
-        <f t="shared" si="43"/>
-        <v>176692.378512428</v>
+        <f t="shared" si="41"/>
+        <v>177756.30820769077</v>
       </c>
       <c r="AJ22" s="8">
-        <f t="shared" si="43"/>
-        <v>238585.69289101573</v>
+        <f t="shared" si="41"/>
+        <v>240266.53444942489</v>
       </c>
       <c r="AK22" s="8">
-        <f t="shared" si="43"/>
-        <v>323272.67018752359</v>
+        <f t="shared" si="41"/>
+        <v>327029.56259715441</v>
       </c>
       <c r="AL22" s="8">
-        <f t="shared" si="43"/>
-        <v>416252.45839519793</v>
+        <f t="shared" si="41"/>
+        <v>421913.66011120641</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.45">
@@ -3004,6 +3007,9 @@
       <c r="N23" s="3">
         <v>1118</v>
       </c>
+      <c r="O23" s="3">
+        <v>1328</v>
+      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
@@ -3023,49 +3029,89 @@
         <f>SUM(K23:N23)</f>
         <v>3915</v>
       </c>
+      <c r="AC23" s="3">
+        <f>AC22-AC24</f>
+        <v>5952.1700000000019</v>
+      </c>
+      <c r="AD23" s="3">
+        <f t="shared" ref="AD23:AL23" si="42">AD22-AD24</f>
+        <v>8740.5610174247995</v>
+      </c>
+      <c r="AE23" s="3">
+        <f t="shared" si="42"/>
+        <v>13784.132607474894</v>
+      </c>
+      <c r="AF23" s="3">
+        <f t="shared" si="42"/>
+        <v>22909.127949496848</v>
+      </c>
+      <c r="AG23" s="3">
+        <f t="shared" si="42"/>
+        <v>32644.459438552884</v>
+      </c>
+      <c r="AH23" s="3">
+        <f t="shared" si="42"/>
+        <v>44622.965802022794</v>
+      </c>
+      <c r="AI23" s="3">
+        <f t="shared" si="42"/>
+        <v>65769.834036845583</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="42"/>
+        <v>91301.28309078145</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" si="42"/>
+        <v>130811.82503886177</v>
+      </c>
+      <c r="AL23" s="3">
+        <f t="shared" si="42"/>
+        <v>168765.46404448256</v>
+      </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" ref="C24:L24" si="44">C22-C23</f>
+        <f t="shared" ref="C24:L24" si="43">C22-C23</f>
         <v>916.6</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1161</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" ref="E24" si="45">E22-E23</f>
+        <f t="shared" ref="E24" si="44">E22-E23</f>
         <v>710</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" ref="F24" si="46">F22-F23</f>
+        <f t="shared" ref="F24" si="45">F22-F23</f>
         <v>804.91</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" ref="G24" si="47">G22-G23</f>
+        <f t="shared" ref="G24" si="46">G22-G23</f>
         <v>1009.6</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" ref="H24" si="48">H22-H23</f>
+        <f t="shared" ref="H24" si="47">H22-H23</f>
         <v>1241</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" ref="I24" si="49">I22-I23</f>
+        <f t="shared" ref="I24" si="48">I22-I23</f>
         <v>1466.6999999999998</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1508</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1787</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2141</v>
       </c>
       <c r="M24" s="8">
@@ -3077,19 +3123,19 @@
         <v>2679</v>
       </c>
       <c r="O24" s="8">
-        <f>O22*O43</f>
-        <v>2625.9799999999996</v>
+        <f>O22-O23</f>
+        <v>3114</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" ref="P24:R24" si="50">P22*P43</f>
+        <f t="shared" ref="P24:R24" si="49">P22*P43</f>
         <v>3141.39</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>3658.97</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>3989.37</v>
       </c>
       <c r="W24" s="8">
@@ -3097,15 +3143,15 @@
         <v>1255.0820000000001</v>
       </c>
       <c r="X24" s="8">
-        <f t="shared" ref="X24:Z24" si="51">X22-X23</f>
+        <f t="shared" ref="X24:Z24" si="50">X22-X23</f>
         <v>2485.7600000000002</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1590.1000000000001</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>2872.4999999999995</v>
       </c>
       <c r="AA24" s="8">
@@ -3117,44 +3163,44 @@
         <v>9046</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" ref="AC24:AC30" si="52">SUM(O24:R24)</f>
-        <v>13415.71</v>
+        <f>SUM(O24:R24)</f>
+        <v>13903.73</v>
       </c>
       <c r="AD24" s="8">
         <f>AD22*AD43</f>
-        <v>20232.136890888294</v>
+        <v>20394.642373991199</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" ref="AE24:AL24" si="53">AE22*AE43</f>
-        <v>30590.145691052239</v>
+        <f t="shared" ref="AE24:AL24" si="51">AE22*AE43</f>
+        <v>30680.8112876054</v>
       </c>
       <c r="AF24" s="8">
-        <f t="shared" si="53"/>
-        <v>46339.246972620691</v>
+        <f t="shared" si="51"/>
+        <v>46512.471897463314</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" si="53"/>
-        <v>60433.067515029783</v>
+        <f t="shared" si="51"/>
+        <v>60625.424671598223</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" si="53"/>
-        <v>82426.704043351347</v>
+        <f t="shared" si="51"/>
+        <v>82871.222203756639</v>
       </c>
       <c r="AI24" s="8">
-        <f t="shared" si="53"/>
-        <v>111316.19846282963</v>
+        <f t="shared" si="51"/>
+        <v>111986.47417084519</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" si="53"/>
-        <v>147923.12959242976</v>
+        <f t="shared" si="51"/>
+        <v>148965.25135864344</v>
       </c>
       <c r="AK24" s="8">
-        <f t="shared" si="53"/>
-        <v>193963.60211251414</v>
+        <f t="shared" si="51"/>
+        <v>196217.73755829263</v>
       </c>
       <c r="AL24" s="8">
-        <f t="shared" si="53"/>
-        <v>249751.47503711874</v>
+        <f t="shared" si="51"/>
+        <v>253148.19606672385</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.45">
@@ -3198,19 +3244,18 @@
         <v>862</v>
       </c>
       <c r="O25" s="3">
-        <f>O22*O45</f>
-        <v>862.822</v>
+        <v>1116</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" ref="P25:R25" si="54">P22*P45</f>
+        <f t="shared" ref="P25:R25" si="52">P22*P45</f>
         <v>1032.171</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>1202.2330000000002</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>1310.7930000000001</v>
       </c>
       <c r="W25" s="3">
@@ -3233,44 +3278,44 @@
         <v>2887</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="52"/>
-        <v>4408.0190000000002</v>
+        <f>SUM(O25:R25)</f>
+        <v>4661.1970000000001</v>
       </c>
       <c r="AD25" s="3">
         <f>AD24*AD45</f>
-        <v>4653.3914849043076</v>
+        <v>4690.7677460179757</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" ref="AE25:AL25" si="55">AE24*AE45</f>
-        <v>7035.7335089420158</v>
+        <f t="shared" ref="AE25:AL25" si="53">AE24*AE45</f>
+        <v>7056.5865961492427</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="55"/>
-        <v>10658.02680370276</v>
+        <f t="shared" si="53"/>
+        <v>10697.868536416563</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" si="55"/>
-        <v>13899.60552845685</v>
+        <f t="shared" si="53"/>
+        <v>13943.847674467592</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="55"/>
-        <v>18958.14192997081</v>
+        <f t="shared" si="53"/>
+        <v>19060.381106864028</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="55"/>
-        <v>25602.725646450817</v>
+        <f t="shared" si="53"/>
+        <v>25756.889059294394</v>
       </c>
       <c r="AJ25" s="3">
-        <f t="shared" si="55"/>
-        <v>34022.319806258849</v>
+        <f t="shared" si="53"/>
+        <v>34262.007812487995</v>
       </c>
       <c r="AK25" s="3">
-        <f t="shared" si="55"/>
-        <v>44611.628485878253</v>
+        <f t="shared" si="53"/>
+        <v>45130.079638407311</v>
       </c>
       <c r="AL25" s="3">
-        <f t="shared" si="55"/>
-        <v>57442.839258537315</v>
+        <f t="shared" si="53"/>
+        <v>58224.085095346491</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.45">
@@ -3314,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -3345,44 +3390,44 @@
         <v>-5</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" ref="AC26:AC31" si="54">SUM(O26:R26)</f>
+        <v>-17</v>
       </c>
       <c r="AD26" s="3">
         <f>AC26</f>
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" ref="AE26:AL26" si="56">AD26</f>
-        <v>0</v>
+        <f t="shared" ref="AE26:AL26" si="55">AD26</f>
+        <v>-17</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>-17</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>-17</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>-17</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>-17</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>-17</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>-17</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>-17</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.45">
@@ -3426,20 +3471,19 @@
         <v>481</v>
       </c>
       <c r="O27" s="3">
-        <f>N27*(1+O46)</f>
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" ref="P27:R27" si="57">O27*(1+P46)</f>
-        <v>481</v>
+        <f>O27*(1+P46)</f>
+        <v>529</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="57"/>
-        <v>481</v>
+        <f t="shared" ref="Q27:R27" si="56">P27*(1+Q46)</f>
+        <v>529</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="57"/>
-        <v>481</v>
+        <f t="shared" si="56"/>
+        <v>529</v>
       </c>
       <c r="W27" s="3">
         <v>467.25200000000001</v>
@@ -3461,44 +3505,44 @@
         <v>1659</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" si="52"/>
-        <v>1924</v>
+        <f t="shared" si="54"/>
+        <v>2116</v>
       </c>
       <c r="AD27" s="3">
         <f>AC27*(1+AD46)</f>
-        <v>2116.4</v>
+        <v>2327.6000000000004</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" ref="AE27:AL27" si="58">AD27*(1+AE46)</f>
-        <v>2328.0400000000004</v>
+        <f t="shared" ref="AE27:AL27" si="57">AD27*(1+AE46)</f>
+        <v>2560.3600000000006</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" si="58"/>
-        <v>2560.8440000000005</v>
+        <f t="shared" si="57"/>
+        <v>2816.3960000000006</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" si="58"/>
-        <v>2816.9284000000007</v>
+        <f t="shared" si="57"/>
+        <v>3098.0356000000011</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" si="58"/>
-        <v>3098.6212400000009</v>
+        <f t="shared" si="57"/>
+        <v>3407.8391600000014</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="58"/>
-        <v>3377.497151600001</v>
+        <f t="shared" si="57"/>
+        <v>3714.5446844000016</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" si="58"/>
-        <v>3681.4718952440012</v>
+        <f t="shared" si="57"/>
+        <v>4048.8537059960022</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" si="58"/>
-        <v>3975.9896468635216</v>
+        <f t="shared" si="57"/>
+        <v>4372.7620024756825</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" si="58"/>
-        <v>4294.0688186126035</v>
+        <f t="shared" si="57"/>
+        <v>4722.5829626737377</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.45">
@@ -3542,20 +3586,19 @@
         <v>20</v>
       </c>
       <c r="O28" s="3">
-        <f>N28*(1+O47)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P28" s="3">
         <f>O28*(1+P47)</f>
-        <v>24.200000000000003</v>
+        <v>27.500000000000004</v>
       </c>
       <c r="Q28" s="3">
         <f>P28*(1+Q47)</f>
-        <v>26.620000000000005</v>
+        <v>30.250000000000007</v>
       </c>
       <c r="R28" s="3">
         <f>Q28*(1+R47)</f>
-        <v>29.282000000000007</v>
+        <v>33.275000000000013</v>
       </c>
       <c r="W28" s="3">
         <v>58.505000000000003</v>
@@ -3577,44 +3620,44 @@
         <v>87</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="52"/>
-        <v>102.10200000000002</v>
+        <f t="shared" si="54"/>
+        <v>116.02500000000001</v>
       </c>
       <c r="AD28" s="3">
         <f>AC28*(1+AD47)</f>
-        <v>117.41730000000001</v>
+        <v>133.42875000000001</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" ref="AE28:AL28" si="59">AD28*(1+AE47)</f>
-        <v>131.50737600000002</v>
+        <f t="shared" ref="AE28:AL28" si="58">AD28*(1+AE47)</f>
+        <v>149.44020000000003</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" si="59"/>
-        <v>144.65811360000004</v>
+        <f t="shared" si="58"/>
+        <v>164.38422000000006</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" si="59"/>
-        <v>159.12392496000004</v>
+        <f t="shared" si="58"/>
+        <v>180.82264200000009</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="59"/>
-        <v>170.26259970720005</v>
+        <f t="shared" si="58"/>
+        <v>193.48022694000011</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="59"/>
-        <v>178.77572969256008</v>
+        <f t="shared" si="58"/>
+        <v>203.15423828700011</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="59"/>
-        <v>187.7145161771881</v>
+        <f t="shared" si="58"/>
+        <v>213.31195020135013</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="59"/>
-        <v>197.10024198604751</v>
+        <f t="shared" si="58"/>
+        <v>223.97754771141766</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" si="59"/>
-        <v>206.95525408534988</v>
+        <f t="shared" si="58"/>
+        <v>235.17642509698854</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.45">
@@ -3658,8 +3701,7 @@
         <v>140</v>
       </c>
       <c r="O29" s="3">
-        <f>O24*O48</f>
-        <v>131.29899999999998</v>
+        <v>149</v>
       </c>
       <c r="P29" s="3">
         <f>P24*P48</f>
@@ -3693,44 +3735,44 @@
         <v>526</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="52"/>
-        <v>670.78549999999996</v>
+        <f t="shared" si="54"/>
+        <v>688.48649999999998</v>
       </c>
       <c r="AD29" s="3">
         <f>AD22*AD48</f>
-        <v>1156.1221080507598</v>
+        <v>1165.4081356566401</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" ref="AE29:AL29" si="60">AE22*AE48</f>
-        <v>1773.3417791914344</v>
+        <f t="shared" ref="AE29:AL29" si="59">AE22*AE48</f>
+        <v>1778.5977558032118</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" si="60"/>
-        <v>2766.5222073206382</v>
+        <f t="shared" si="59"/>
+        <v>2776.8639938784067</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" si="60"/>
-        <v>3718.9580009249098</v>
+        <f t="shared" si="59"/>
+        <v>3730.7953644060444</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" si="60"/>
-        <v>5072.4125565139284</v>
+        <f t="shared" si="59"/>
+        <v>5099.7675202311775</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="60"/>
-        <v>7067.6951404971196</v>
+        <f t="shared" si="59"/>
+        <v>7110.2523283076307</v>
       </c>
       <c r="AJ29" s="3">
-        <f t="shared" si="60"/>
-        <v>9543.4277156406297</v>
+        <f t="shared" si="59"/>
+        <v>9610.6613779769959</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="60"/>
-        <v>12930.906807500944</v>
+        <f t="shared" si="59"/>
+        <v>13081.182503886177</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" si="60"/>
-        <v>16650.098335807917</v>
+        <f t="shared" si="59"/>
+        <v>16876.546404448258</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.45">
@@ -3774,20 +3816,19 @@
         <v>389</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" ref="O30:R31" si="61">N30*(1+O49)</f>
-        <v>408.45000000000005</v>
+        <v>396</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="61"/>
-        <v>428.87250000000006</v>
+        <f>O30*(1+P49)</f>
+        <v>415.8</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="61"/>
-        <v>450.31612500000006</v>
+        <f t="shared" ref="Q30:R31" si="60">P30*(1+Q49)</f>
+        <v>436.59000000000003</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="61"/>
-        <v>472.83193125000008</v>
+        <f t="shared" si="60"/>
+        <v>458.41950000000003</v>
       </c>
       <c r="W30" s="3">
         <v>0</v>
@@ -3809,44 +3850,44 @@
         <v>1432</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="52"/>
-        <v>1760.4705562500001</v>
+        <f t="shared" si="54"/>
+        <v>1706.8094999999998</v>
       </c>
       <c r="AD30" s="3">
         <f>AC30*(1+AD49)</f>
-        <v>2288.611723125</v>
+        <v>2218.8523499999997</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" ref="AE30:AL30" si="62">AD30*(1+AE49)</f>
-        <v>2975.1952400625</v>
+        <f t="shared" ref="AE30:AL30" si="61">AD30*(1+AE49)</f>
+        <v>2884.5080549999998</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" si="62"/>
-        <v>3718.9940500781249</v>
+        <f t="shared" si="61"/>
+        <v>3605.6350687499998</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" si="62"/>
-        <v>4648.7425625976557</v>
+        <f t="shared" si="61"/>
+        <v>4507.0438359375003</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" si="62"/>
-        <v>5717.9533519951165</v>
+        <f t="shared" si="61"/>
+        <v>5543.6639182031249</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="62"/>
-        <v>6975.9030894340422</v>
+        <f t="shared" si="61"/>
+        <v>6763.2699802078123</v>
       </c>
       <c r="AJ30" s="3">
-        <f t="shared" si="62"/>
-        <v>8371.0837073208495</v>
+        <f t="shared" si="61"/>
+        <v>8115.9239762493744</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="62"/>
-        <v>10045.300448785019</v>
+        <f t="shared" si="61"/>
+        <v>9739.1087714992482</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" si="62"/>
-        <v>12054.360538542023</v>
+        <f t="shared" si="61"/>
+        <v>11686.930525799098</v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.45">
@@ -3890,20 +3931,19 @@
         <v>624</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="61"/>
-        <v>686.40000000000009</v>
+        <v>677</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="61"/>
-        <v>755.04000000000019</v>
+        <f>O31*(1+P50)</f>
+        <v>744.7</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="61"/>
-        <v>830.54400000000032</v>
+        <f t="shared" si="60"/>
+        <v>819.17000000000007</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="61"/>
-        <v>913.59840000000042</v>
+        <f t="shared" si="60"/>
+        <v>901.0870000000001</v>
       </c>
       <c r="W31" s="3">
         <v>2834.616</v>
@@ -3929,44 +3969,44 @@
         <v>2184</v>
       </c>
       <c r="AC31" s="3">
-        <f>SUM(O31:R31)</f>
-        <v>3185.5824000000007</v>
+        <f t="shared" si="54"/>
+        <v>3141.9569999999999</v>
       </c>
       <c r="AD31" s="3">
         <f>AC31*(1+AD50)</f>
-        <v>4141.2571200000011</v>
+        <v>4084.5441000000001</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" ref="AE31:AL31" si="63">AD31*(1+AE50)</f>
-        <v>5383.6342560000021</v>
+        <f t="shared" ref="AE31:AL31" si="62">AD31*(1+AE50)</f>
+        <v>5309.90733</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" si="63"/>
-        <v>6460.3611072000022</v>
+        <f t="shared" si="62"/>
+        <v>6371.8887960000002</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" si="63"/>
-        <v>7752.4333286400024</v>
+        <f t="shared" si="62"/>
+        <v>7646.2665551999999</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" si="63"/>
-        <v>9302.9199943680032</v>
+        <f t="shared" si="62"/>
+        <v>9175.5198662399998</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="63"/>
-        <v>10698.357993523203</v>
+        <f t="shared" si="62"/>
+        <v>10551.847846175999</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" si="63"/>
-        <v>12303.111692551682</v>
+        <f t="shared" si="62"/>
+        <v>12134.625023102397</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" si="63"/>
-        <v>14148.578446434432</v>
+        <f t="shared" si="62"/>
+        <v>13954.818776567756</v>
       </c>
       <c r="AL31" s="3">
-        <f t="shared" si="63"/>
-        <v>16270.865213399597</v>
+        <f t="shared" si="62"/>
+        <v>16048.041593052918</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.45">
@@ -3978,39 +4018,39 @@
         <v>1259.7</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" ref="D32:L32" si="64">SUM(D25:D31)</f>
+        <f t="shared" ref="D32:L32" si="63">SUM(D25:D31)</f>
         <v>1601.5</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" ref="E32" si="65">SUM(E25:E31)</f>
+        <f t="shared" ref="E32" si="64">SUM(E25:E31)</f>
         <v>1092.9000000000001</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" ref="F32" si="66">SUM(F25:F31)</f>
+        <f t="shared" ref="F32" si="65">SUM(F25:F31)</f>
         <v>1156.6000000000001</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" ref="G32" si="67">SUM(G25:G31)</f>
+        <f t="shared" ref="G32" si="66">SUM(G25:G31)</f>
         <v>1195.3000000000002</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" ref="H32" si="68">SUM(H25:H31)</f>
+        <f t="shared" ref="H32" si="67">SUM(H25:H31)</f>
         <v>1502</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" ref="I32" si="69">SUM(I25:I31)</f>
+        <f t="shared" ref="I32" si="68">SUM(I25:I31)</f>
         <v>1830.4</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>1712</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>1802</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>2120</v>
       </c>
       <c r="M32" s="8">
@@ -4023,34 +4063,34 @@
       </c>
       <c r="O32" s="8">
         <f>SUM(O25:O31)</f>
-        <v>2591.9710000000005</v>
+        <v>2875</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" ref="P32:R32" si="70">SUM(P25:P31)</f>
-        <v>2878.3530000000001</v>
+        <f t="shared" ref="P32:R32" si="69">SUM(P25:P31)</f>
+        <v>2906.2404999999999</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="70"/>
-        <v>3173.6616250000002</v>
+        <f t="shared" si="69"/>
+        <v>3200.1915000000004</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="70"/>
-        <v>3406.9738312500003</v>
+        <f t="shared" si="69"/>
+        <v>3432.0430000000001</v>
       </c>
       <c r="W32" s="8">
         <f>SUM(W25:W31)</f>
         <v>3383.5650000000001</v>
       </c>
       <c r="X32" s="8">
-        <f t="shared" ref="X32:Z32" si="71">SUM(X25:X31)</f>
+        <f t="shared" ref="X32:Z32" si="70">SUM(X25:X31)</f>
         <v>4627.759</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>2080.5</v>
       </c>
       <c r="Z32" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>4391.3999999999996</v>
       </c>
       <c r="AA32" s="8">
@@ -4063,43 +4103,43 @@
       </c>
       <c r="AC32" s="8">
         <f>SUM(AC25:AC31)</f>
-        <v>12050.959456250001</v>
+        <v>12413.475</v>
       </c>
       <c r="AD32" s="8">
-        <f t="shared" ref="AD32:AL32" si="72">SUM(AD25:AD31)</f>
-        <v>14473.199736080071</v>
+        <f t="shared" ref="AD32:AL32" si="71">SUM(AD25:AD31)</f>
+        <v>14603.601081674617</v>
       </c>
       <c r="AE32" s="8">
-        <f t="shared" si="72"/>
-        <v>19627.452160195953</v>
+        <f t="shared" si="71"/>
+        <v>19722.399936952454</v>
       </c>
       <c r="AF32" s="8">
-        <f t="shared" si="72"/>
-        <v>26309.406281901527</v>
+        <f t="shared" si="71"/>
+        <v>26416.03661504497</v>
       </c>
       <c r="AG32" s="8">
-        <f t="shared" si="72"/>
-        <v>32995.791745579416</v>
+        <f t="shared" si="71"/>
+        <v>33089.811672011136</v>
       </c>
       <c r="AH32" s="8">
-        <f t="shared" si="72"/>
-        <v>42320.311672555064</v>
+        <f t="shared" si="71"/>
+        <v>42463.651798478335</v>
       </c>
       <c r="AI32" s="8">
-        <f t="shared" si="72"/>
-        <v>53900.954751197743</v>
+        <f t="shared" si="71"/>
+        <v>54082.958136672838</v>
       </c>
       <c r="AJ32" s="8">
-        <f t="shared" si="72"/>
-        <v>68109.12933319321</v>
+        <f t="shared" si="71"/>
+        <v>68368.383846014112</v>
       </c>
       <c r="AK32" s="8">
-        <f t="shared" si="72"/>
-        <v>85909.504077448219</v>
+        <f t="shared" si="71"/>
+        <v>86484.929240547601</v>
       </c>
       <c r="AL32" s="8">
-        <f t="shared" si="72"/>
-        <v>106919.1874189848</v>
+        <f t="shared" si="71"/>
+        <v>107776.36300641748</v>
       </c>
     </row>
     <row r="33" spans="2:209" x14ac:dyDescent="0.45">
@@ -4107,43 +4147,43 @@
         <v>26</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" ref="C33:L33" si="73">C24-C32</f>
+        <f t="shared" ref="C33:L33" si="72">C24-C32</f>
         <v>-343.1</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>-440.5</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" ref="E33" si="74">E24-E32</f>
+        <f t="shared" ref="E33" si="73">E24-E32</f>
         <v>-382.90000000000009</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" ref="F33" si="75">F24-F32</f>
+        <f t="shared" ref="F33" si="74">F24-F32</f>
         <v>-351.69000000000017</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" ref="G33" si="76">G24-G32</f>
+        <f t="shared" ref="G33" si="75">G24-G32</f>
         <v>-185.70000000000016</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" ref="H33" si="77">H24-H32</f>
+        <f t="shared" ref="H33" si="76">H24-H32</f>
         <v>-261</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" ref="I33" si="78">I24-I32</f>
+        <f t="shared" ref="I33" si="77">I24-I32</f>
         <v>-363.70000000000027</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>-204</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>-15</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>21</v>
       </c>
       <c r="M33" s="8">
@@ -4155,35 +4195,35 @@
         <v>161</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" ref="O33:R33" si="79">O24-O32</f>
-        <v>34.008999999999105</v>
+        <f>O24-O32</f>
+        <v>239</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="79"/>
-        <v>263.03699999999981</v>
+        <f t="shared" ref="P33:R33" si="78">P24-P32</f>
+        <v>235.14949999999999</v>
       </c>
       <c r="Q33" s="8">
-        <f t="shared" si="79"/>
-        <v>485.30837499999961</v>
+        <f t="shared" si="78"/>
+        <v>458.77849999999944</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" si="79"/>
-        <v>582.39616874999956</v>
+        <f t="shared" si="78"/>
+        <v>557.32699999999977</v>
       </c>
       <c r="W33" s="8">
         <f>W24-W32</f>
         <v>-2128.4830000000002</v>
       </c>
       <c r="X33" s="8">
-        <f t="shared" ref="X33:Z33" si="80">X24-X32</f>
+        <f t="shared" ref="X33:Z33" si="79">X24-X32</f>
         <v>-2141.9989999999998</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>-490.39999999999986</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>-1518.9</v>
       </c>
       <c r="AA33" s="8">
@@ -4195,44 +4235,44 @@
         <v>276</v>
       </c>
       <c r="AC33" s="8">
-        <f>SUM(O33:R33)</f>
-        <v>1364.7505437499981</v>
+        <f>AC24-AC32</f>
+        <v>1490.2549999999992</v>
       </c>
       <c r="AD33" s="8">
         <f>AD24-AD32</f>
-        <v>5758.9371548082236</v>
+        <v>5791.0412923165823</v>
       </c>
       <c r="AE33" s="8">
-        <f t="shared" ref="AE33:AL33" si="81">AE24-AE32</f>
-        <v>10962.693530856286</v>
+        <f t="shared" ref="AE33:AL33" si="80">AE24-AE32</f>
+        <v>10958.411350652947</v>
       </c>
       <c r="AF33" s="8">
-        <f t="shared" si="81"/>
-        <v>20029.840690719164</v>
+        <f t="shared" si="80"/>
+        <v>20096.435282418344</v>
       </c>
       <c r="AG33" s="8">
-        <f t="shared" si="81"/>
-        <v>27437.275769450367</v>
+        <f t="shared" si="80"/>
+        <v>27535.612999587087</v>
       </c>
       <c r="AH33" s="8">
-        <f t="shared" si="81"/>
-        <v>40106.392370796282</v>
+        <f t="shared" si="80"/>
+        <v>40407.570405278304</v>
       </c>
       <c r="AI33" s="8">
-        <f t="shared" si="81"/>
-        <v>57415.243711631891</v>
+        <f t="shared" si="80"/>
+        <v>57903.516034172353</v>
       </c>
       <c r="AJ33" s="8">
-        <f t="shared" si="81"/>
-        <v>79814.000259236549</v>
+        <f t="shared" si="80"/>
+        <v>80596.867512629324</v>
       </c>
       <c r="AK33" s="8">
-        <f t="shared" si="81"/>
-        <v>108054.09803506592</v>
+        <f t="shared" si="80"/>
+        <v>109732.80831774503</v>
       </c>
       <c r="AL33" s="8">
-        <f t="shared" si="81"/>
-        <v>142832.28761813394</v>
+        <f t="shared" si="80"/>
+        <v>145371.83306030638</v>
       </c>
     </row>
     <row r="34" spans="2:209" x14ac:dyDescent="0.45">
@@ -4460,67 +4500,67 @@
         <v>-359.39000000000016</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" ref="G36:N36" si="82">G33+G34+G35</f>
+        <f t="shared" ref="G36:O36" si="81">G33+G34+G35</f>
         <v>-185.70000000000016</v>
       </c>
       <c r="H36" s="8">
+        <f t="shared" si="81"/>
+        <v>-261</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="81"/>
+        <v>-363.70000000000027</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="81"/>
+        <v>-204</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="81"/>
+        <v>-15</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="81"/>
+        <v>21</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="81"/>
+        <v>124</v>
+      </c>
+      <c r="N36" s="8">
+        <f t="shared" si="81"/>
+        <v>161</v>
+      </c>
+      <c r="O36" s="8">
+        <f t="shared" si="81"/>
+        <v>239</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" ref="P36:R36" si="82">P33+P34+P35</f>
+        <v>235.14949999999999</v>
+      </c>
+      <c r="Q36" s="8">
         <f t="shared" si="82"/>
-        <v>-261</v>
-      </c>
-      <c r="I36" s="8">
+        <v>458.77849999999944</v>
+      </c>
+      <c r="R36" s="8">
         <f t="shared" si="82"/>
-        <v>-363.70000000000027</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" si="82"/>
-        <v>-204</v>
-      </c>
-      <c r="K36" s="8">
-        <f t="shared" si="82"/>
-        <v>-15</v>
-      </c>
-      <c r="L36" s="8">
-        <f t="shared" si="82"/>
-        <v>21</v>
-      </c>
-      <c r="M36" s="8">
-        <f t="shared" si="82"/>
-        <v>124</v>
-      </c>
-      <c r="N36" s="8">
-        <f t="shared" si="82"/>
-        <v>161</v>
-      </c>
-      <c r="O36" s="8">
-        <f>O33+O34+O35</f>
-        <v>34.008999999999105</v>
-      </c>
-      <c r="P36" s="8">
-        <f t="shared" ref="P36:R36" si="83">P33+P34+P35</f>
-        <v>263.03699999999981</v>
-      </c>
-      <c r="Q36" s="8">
+        <v>557.32699999999977</v>
+      </c>
+      <c r="W36" s="8">
+        <f t="shared" ref="W36:Z36" si="83">W33+W34+W35</f>
+        <v>-940.4670000000001</v>
+      </c>
+      <c r="X36" s="8">
         <f t="shared" si="83"/>
-        <v>485.30837499999961</v>
-      </c>
-      <c r="R36" s="8">
+        <v>-2451.1769999999997</v>
+      </c>
+      <c r="Y36" s="8">
         <f t="shared" si="83"/>
-        <v>582.39616874999956</v>
-      </c>
-      <c r="W36" s="8">
-        <f t="shared" ref="W36:Z36" si="84">W33+W34+W35</f>
-        <v>-940.4670000000001</v>
-      </c>
-      <c r="X36" s="8">
-        <f t="shared" si="84"/>
-        <v>-2451.1769999999997</v>
-      </c>
-      <c r="Y36" s="8">
-        <f t="shared" si="84"/>
         <v>-815.09999999999991</v>
       </c>
       <c r="Z36" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>-1221.2000000000003</v>
       </c>
       <c r="AA36" s="8">
@@ -4533,43 +4573,43 @@
       </c>
       <c r="AC36" s="8">
         <f>AC33+AC34+AC35</f>
-        <v>1364.7505437499981</v>
+        <v>1490.2549999999992</v>
       </c>
       <c r="AD36" s="8">
-        <f t="shared" ref="AD36:AL36" si="85">AD33+AD34+AD35</f>
-        <v>5758.9371548082236</v>
+        <f t="shared" ref="AD36:AL36" si="84">AD33+AD34+AD35</f>
+        <v>5791.0412923165823</v>
       </c>
       <c r="AE36" s="8">
-        <f t="shared" si="85"/>
-        <v>10962.693530856286</v>
+        <f t="shared" si="84"/>
+        <v>10958.411350652947</v>
       </c>
       <c r="AF36" s="8">
-        <f t="shared" si="85"/>
-        <v>20029.840690719164</v>
+        <f t="shared" si="84"/>
+        <v>20096.435282418344</v>
       </c>
       <c r="AG36" s="8">
-        <f t="shared" si="85"/>
-        <v>27437.275769450367</v>
+        <f t="shared" si="84"/>
+        <v>27535.612999587087</v>
       </c>
       <c r="AH36" s="8">
-        <f t="shared" si="85"/>
-        <v>40106.392370796282</v>
+        <f t="shared" si="84"/>
+        <v>40407.570405278304</v>
       </c>
       <c r="AI36" s="8">
-        <f t="shared" si="85"/>
-        <v>57415.243711631891</v>
+        <f t="shared" si="84"/>
+        <v>57903.516034172353</v>
       </c>
       <c r="AJ36" s="8">
-        <f t="shared" si="85"/>
-        <v>79814.000259236549</v>
+        <f t="shared" si="84"/>
+        <v>80596.867512629324</v>
       </c>
       <c r="AK36" s="8">
-        <f t="shared" si="85"/>
-        <v>108054.09803506592</v>
+        <f t="shared" si="84"/>
+        <v>109732.80831774503</v>
       </c>
       <c r="AL36" s="8">
-        <f t="shared" si="85"/>
-        <v>142832.28761813394</v>
+        <f t="shared" si="84"/>
+        <v>145371.83306030638</v>
       </c>
     </row>
     <row r="37" spans="2:209" x14ac:dyDescent="0.45">
@@ -4614,20 +4654,19 @@
         <v>-14</v>
       </c>
       <c r="O37" s="3">
-        <f>O36*O44</f>
-        <v>8.5593851199997761</v>
+        <v>-14</v>
       </c>
       <c r="P37" s="3">
         <f>P36*P44</f>
-        <v>66.20115215999995</v>
+        <v>59.182426159999999</v>
       </c>
       <c r="Q37" s="3">
         <f>Q36*Q44</f>
-        <v>122.14241181999991</v>
+        <v>115.46537287999986</v>
       </c>
       <c r="R37" s="3">
         <f>R36*R44</f>
-        <v>146.57746775099989</v>
+        <v>140.26805935999994</v>
       </c>
       <c r="W37" s="3">
         <v>0</v>
@@ -4651,43 +4690,43 @@
       </c>
       <c r="AC37" s="3">
         <f>SUM(O37:R37)</f>
-        <v>343.48041685099952</v>
+        <v>300.91585839999982</v>
       </c>
       <c r="AD37" s="3">
-        <f t="shared" ref="AD37:AL37" si="86">AD36*AD44</f>
-        <v>1449.4093031221339</v>
+        <f t="shared" ref="AD37:AL37" si="85">AD36*AD44</f>
+        <v>1169.3409258867036</v>
       </c>
       <c r="AE37" s="3">
-        <f t="shared" si="86"/>
-        <v>2759.0907078459104</v>
+        <f t="shared" si="85"/>
+        <v>2212.7486626664795</v>
       </c>
       <c r="AF37" s="3">
-        <f t="shared" si="86"/>
-        <v>5041.1103050401998</v>
+        <f t="shared" si="85"/>
+        <v>4057.9203383239528</v>
       </c>
       <c r="AG37" s="3">
-        <f t="shared" si="86"/>
-        <v>6905.4135656552689</v>
+        <f t="shared" si="85"/>
+        <v>5560.0569180046014</v>
       </c>
       <c r="AH37" s="3">
-        <f t="shared" si="86"/>
-        <v>10093.97683188201</v>
+        <f t="shared" si="85"/>
+        <v>8159.1933825840251</v>
       </c>
       <c r="AI37" s="3">
-        <f t="shared" si="86"/>
-        <v>14450.268537343514</v>
+        <f t="shared" si="85"/>
+        <v>11692.016622525096</v>
       </c>
       <c r="AJ37" s="3">
-        <f t="shared" si="86"/>
-        <v>20087.587585244655</v>
+        <f t="shared" si="85"/>
+        <v>16274.312498138859</v>
       </c>
       <c r="AK37" s="3">
-        <f t="shared" si="86"/>
-        <v>27195.055393465394</v>
+        <f t="shared" si="85"/>
+        <v>22157.511439033526</v>
       </c>
       <c r="AL37" s="3">
-        <f t="shared" si="86"/>
-        <v>35948.030147731952</v>
+        <f t="shared" si="85"/>
+        <v>29353.828661889132</v>
       </c>
     </row>
     <row r="38" spans="2:209" x14ac:dyDescent="0.45">
@@ -4695,23 +4734,23 @@
         <v>31</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" ref="C38:L38" si="87">C36-C37</f>
+        <f t="shared" ref="C38:L38" si="86">C36-C37</f>
         <v>-360.7</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>-434.90000000000003</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" ref="E38" si="88">E36-E37</f>
+        <f t="shared" ref="E38" si="87">E36-E37</f>
         <v>-67.200000000000102</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" ref="F38" si="89">F36-F37</f>
+        <f t="shared" ref="F38" si="88">F36-F37</f>
         <v>-359.69000000000017</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" ref="G38" si="90">G36-G37</f>
+        <f t="shared" ref="G38" si="89">G36-G37</f>
         <v>-185.70000000000016</v>
       </c>
       <c r="H38" s="9">
@@ -4719,19 +4758,19 @@
         <v>-251</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" ref="I38" si="91">I36-I37</f>
+        <f t="shared" ref="I38" si="90">I36-I37</f>
         <v>-346.70000000000027</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>-188</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>36</v>
       </c>
       <c r="M38" s="9">
@@ -4744,34 +4783,34 @@
       </c>
       <c r="O38" s="9">
         <f>O36-O37</f>
-        <v>25.449614879999331</v>
+        <v>253</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" ref="P38:R38" si="92">P36-P37</f>
-        <v>196.83584783999987</v>
+        <f t="shared" ref="P38:R38" si="91">P36-P37</f>
+        <v>175.96707383999998</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="92"/>
-        <v>363.16596317999972</v>
+        <f t="shared" si="91"/>
+        <v>343.31312711999959</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="92"/>
-        <v>435.8187009989997</v>
+        <f t="shared" si="91"/>
+        <v>417.05894063999983</v>
       </c>
       <c r="W38" s="9">
         <f>W36-W37</f>
         <v>-940.4670000000001</v>
       </c>
       <c r="X38" s="9">
-        <f t="shared" ref="X38:Z38" si="93">X36-X37</f>
+        <f t="shared" ref="X38:Z38" si="92">X36-X37</f>
         <v>-2451.1769999999997</v>
       </c>
       <c r="Y38" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>-816.39999999999986</v>
       </c>
       <c r="Z38" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>-1223.2000000000003</v>
       </c>
       <c r="AA38" s="9">
@@ -4784,727 +4823,727 @@
       </c>
       <c r="AC38" s="9">
         <f>AC36-AC37</f>
-        <v>1021.2701268989986</v>
+        <v>1189.3391415999995</v>
       </c>
       <c r="AD38" s="9">
-        <f t="shared" ref="AD38:AL38" si="94">AD36-AD37</f>
-        <v>4309.5278516860899</v>
+        <f t="shared" ref="AD38:AL38" si="93">AD36-AD37</f>
+        <v>4621.7003664298791</v>
       </c>
       <c r="AE38" s="9">
+        <f t="shared" si="93"/>
+        <v>8745.6626879864671</v>
+      </c>
+      <c r="AF38" s="9">
+        <f t="shared" si="93"/>
+        <v>16038.514944094391</v>
+      </c>
+      <c r="AG38" s="9">
+        <f t="shared" si="93"/>
+        <v>21975.556081582487</v>
+      </c>
+      <c r="AH38" s="9">
+        <f t="shared" si="93"/>
+        <v>32248.37702269428</v>
+      </c>
+      <c r="AI38" s="9">
+        <f t="shared" si="93"/>
+        <v>46211.499411647259</v>
+      </c>
+      <c r="AJ38" s="9">
+        <f t="shared" si="93"/>
+        <v>64322.555014490463</v>
+      </c>
+      <c r="AK38" s="9">
+        <f t="shared" si="93"/>
+        <v>87575.29687871151</v>
+      </c>
+      <c r="AL38" s="9">
+        <f t="shared" si="93"/>
+        <v>116018.00439841725</v>
+      </c>
+      <c r="AM38" s="9">
+        <f t="shared" ref="AM38:BR38" si="94">AL38*(1+$AP$54)</f>
+        <v>119498.54453036978</v>
+      </c>
+      <c r="AN38" s="9">
         <f t="shared" si="94"/>
-        <v>8203.6028230103766</v>
-      </c>
-      <c r="AF38" s="9">
+        <v>123083.50086628087</v>
+      </c>
+      <c r="AO38" s="9">
         <f t="shared" si="94"/>
-        <v>14988.730385678964</v>
-      </c>
-      <c r="AG38" s="9">
+        <v>126776.0058922693</v>
+      </c>
+      <c r="AP38" s="9">
         <f t="shared" si="94"/>
-        <v>20531.862203795099</v>
-      </c>
-      <c r="AH38" s="9">
+        <v>130579.28606903738</v>
+      </c>
+      <c r="AQ38" s="9">
         <f t="shared" si="94"/>
-        <v>30012.415538914272</v>
-      </c>
-      <c r="AI38" s="9">
+        <v>134496.6646511085</v>
+      </c>
+      <c r="AR38" s="9">
         <f t="shared" si="94"/>
-        <v>42964.975174288375</v>
-      </c>
-      <c r="AJ38" s="9">
+        <v>138531.56459064176</v>
+      </c>
+      <c r="AS38" s="9">
         <f t="shared" si="94"/>
-        <v>59726.412673991894</v>
-      </c>
-      <c r="AK38" s="9">
+        <v>142687.51152836101</v>
+      </c>
+      <c r="AT38" s="9">
         <f t="shared" si="94"/>
-        <v>80859.042641600536</v>
-      </c>
-      <c r="AL38" s="9">
+        <v>146968.13687421184</v>
+      </c>
+      <c r="AU38" s="9">
         <f t="shared" si="94"/>
-        <v>106884.25747040199</v>
-      </c>
-      <c r="AM38" s="9">
-        <f t="shared" ref="AM38:BR38" si="95">AL38*(1+$AP$54)</f>
-        <v>110090.78519451406</v>
-      </c>
-      <c r="AN38" s="9">
+        <v>151377.18098043819</v>
+      </c>
+      <c r="AV38" s="9">
+        <f t="shared" si="94"/>
+        <v>155918.49640985133</v>
+      </c>
+      <c r="AW38" s="9">
+        <f t="shared" si="94"/>
+        <v>160596.05130214687</v>
+      </c>
+      <c r="AX38" s="9">
+        <f t="shared" si="94"/>
+        <v>165413.93284121127</v>
+      </c>
+      <c r="AY38" s="9">
+        <f t="shared" si="94"/>
+        <v>170376.3508264476</v>
+      </c>
+      <c r="AZ38" s="9">
+        <f t="shared" si="94"/>
+        <v>175487.64135124104</v>
+      </c>
+      <c r="BA38" s="9">
+        <f t="shared" si="94"/>
+        <v>180752.27059177827</v>
+      </c>
+      <c r="BB38" s="9">
+        <f t="shared" si="94"/>
+        <v>186174.83870953161</v>
+      </c>
+      <c r="BC38" s="9">
+        <f t="shared" si="94"/>
+        <v>191760.08387081756</v>
+      </c>
+      <c r="BD38" s="9">
+        <f t="shared" si="94"/>
+        <v>197512.88638694209</v>
+      </c>
+      <c r="BE38" s="9">
+        <f t="shared" si="94"/>
+        <v>203438.27297855035</v>
+      </c>
+      <c r="BF38" s="9">
+        <f t="shared" si="94"/>
+        <v>209541.42116790687</v>
+      </c>
+      <c r="BG38" s="9">
+        <f t="shared" si="94"/>
+        <v>215827.66380294409</v>
+      </c>
+      <c r="BH38" s="9">
+        <f t="shared" si="94"/>
+        <v>222302.49371703243</v>
+      </c>
+      <c r="BI38" s="9">
+        <f t="shared" si="94"/>
+        <v>228971.5685285434</v>
+      </c>
+      <c r="BJ38" s="9">
+        <f t="shared" si="94"/>
+        <v>235840.7155843997</v>
+      </c>
+      <c r="BK38" s="9">
+        <f t="shared" si="94"/>
+        <v>242915.93705193169</v>
+      </c>
+      <c r="BL38" s="9">
+        <f t="shared" si="94"/>
+        <v>250203.41516348964</v>
+      </c>
+      <c r="BM38" s="9">
+        <f t="shared" si="94"/>
+        <v>257709.51761839434</v>
+      </c>
+      <c r="BN38" s="9">
+        <f t="shared" si="94"/>
+        <v>265440.80314694619</v>
+      </c>
+      <c r="BO38" s="9">
+        <f t="shared" si="94"/>
+        <v>273404.02724135458</v>
+      </c>
+      <c r="BP38" s="9">
+        <f t="shared" si="94"/>
+        <v>281606.14805859519</v>
+      </c>
+      <c r="BQ38" s="9">
+        <f t="shared" si="94"/>
+        <v>290054.33250035305</v>
+      </c>
+      <c r="BR38" s="9">
+        <f t="shared" si="94"/>
+        <v>298755.96247536363</v>
+      </c>
+      <c r="BS38" s="9">
+        <f t="shared" ref="BS38:CX38" si="95">BR38*(1+$AP$54)</f>
+        <v>307718.64134962455</v>
+      </c>
+      <c r="BT38" s="9">
         <f t="shared" si="95"/>
-        <v>113393.50875034949</v>
-      </c>
-      <c r="AO38" s="9">
+        <v>316950.20059011329</v>
+      </c>
+      <c r="BU38" s="9">
         <f t="shared" si="95"/>
-        <v>116795.31401285998</v>
-      </c>
-      <c r="AP38" s="9">
+        <v>326458.70660781668</v>
+      </c>
+      <c r="BV38" s="9">
         <f t="shared" si="95"/>
-        <v>120299.17343324579</v>
-      </c>
-      <c r="AQ38" s="9">
+        <v>336252.46780605119</v>
+      </c>
+      <c r="BW38" s="9">
         <f t="shared" si="95"/>
-        <v>123908.14863624316</v>
-      </c>
-      <c r="AR38" s="9">
+        <v>346340.04184023273</v>
+      </c>
+      <c r="BX38" s="9">
         <f t="shared" si="95"/>
-        <v>127625.39309533045</v>
-      </c>
-      <c r="AS38" s="9">
+        <v>356730.24309543974</v>
+      </c>
+      <c r="BY38" s="9">
         <f t="shared" si="95"/>
-        <v>131454.15488819036</v>
-      </c>
-      <c r="AT38" s="9">
+        <v>367432.15038830292</v>
+      </c>
+      <c r="BZ38" s="9">
         <f t="shared" si="95"/>
-        <v>135397.77953483607</v>
-      </c>
-      <c r="AU38" s="9">
+        <v>378455.11489995202</v>
+      </c>
+      <c r="CA38" s="9">
         <f t="shared" si="95"/>
-        <v>139459.71292088114</v>
-      </c>
-      <c r="AV38" s="9">
+        <v>389808.76834695059</v>
+      </c>
+      <c r="CB38" s="9">
         <f t="shared" si="95"/>
-        <v>143643.50430850757</v>
-      </c>
-      <c r="AW38" s="9">
+        <v>401503.0313973591</v>
+      </c>
+      <c r="CC38" s="9">
         <f t="shared" si="95"/>
-        <v>147952.8094377628</v>
-      </c>
-      <c r="AX38" s="9">
+        <v>413548.12233927986</v>
+      </c>
+      <c r="CD38" s="9">
         <f t="shared" si="95"/>
-        <v>152391.39372089569</v>
-      </c>
-      <c r="AY38" s="9">
+        <v>425954.56600945827</v>
+      </c>
+      <c r="CE38" s="9">
         <f t="shared" si="95"/>
-        <v>156963.13553252257</v>
-      </c>
-      <c r="AZ38" s="9">
+        <v>438733.20298974204</v>
+      </c>
+      <c r="CF38" s="9">
         <f t="shared" si="95"/>
-        <v>161672.02959849825</v>
-      </c>
-      <c r="BA38" s="9">
+        <v>451895.19907943433</v>
+      </c>
+      <c r="CG38" s="9">
         <f t="shared" si="95"/>
-        <v>166522.19048645321</v>
-      </c>
-      <c r="BB38" s="9">
+        <v>465452.05505181738</v>
+      </c>
+      <c r="CH38" s="9">
         <f t="shared" si="95"/>
-        <v>171517.85620104682</v>
-      </c>
-      <c r="BC38" s="9">
+        <v>479415.61670337192</v>
+      </c>
+      <c r="CI38" s="9">
         <f t="shared" si="95"/>
-        <v>176663.39188707824</v>
-      </c>
-      <c r="BD38" s="9">
+        <v>493798.08520447311</v>
+      </c>
+      <c r="CJ38" s="9">
         <f t="shared" si="95"/>
-        <v>181963.29364369059</v>
-      </c>
-      <c r="BE38" s="9">
+        <v>508612.02776060731</v>
+      </c>
+      <c r="CK38" s="9">
         <f t="shared" si="95"/>
-        <v>187422.19245300131</v>
-      </c>
-      <c r="BF38" s="9">
+        <v>523870.38859342557</v>
+      </c>
+      <c r="CL38" s="9">
         <f t="shared" si="95"/>
-        <v>193044.85822659134</v>
-      </c>
-      <c r="BG38" s="9">
+        <v>539586.50025122834</v>
+      </c>
+      <c r="CM38" s="9">
         <f t="shared" si="95"/>
-        <v>198836.20397338909</v>
-      </c>
-      <c r="BH38" s="9">
+        <v>555774.09525876516</v>
+      </c>
+      <c r="CN38" s="9">
         <f t="shared" si="95"/>
-        <v>204801.29009259076</v>
-      </c>
-      <c r="BI38" s="9">
+        <v>572447.3181165281</v>
+      </c>
+      <c r="CO38" s="9">
         <f t="shared" si="95"/>
-        <v>210945.32879536849</v>
-      </c>
-      <c r="BJ38" s="9">
+        <v>589620.73766002397</v>
+      </c>
+      <c r="CP38" s="9">
         <f t="shared" si="95"/>
-        <v>217273.68865922955</v>
-      </c>
-      <c r="BK38" s="9">
+        <v>607309.3597898247</v>
+      </c>
+      <c r="CQ38" s="9">
         <f t="shared" si="95"/>
-        <v>223791.89931900645</v>
-      </c>
-      <c r="BL38" s="9">
+        <v>625528.64058351947</v>
+      </c>
+      <c r="CR38" s="9">
         <f t="shared" si="95"/>
-        <v>230505.65629857665</v>
-      </c>
-      <c r="BM38" s="9">
+        <v>644294.49980102503</v>
+      </c>
+      <c r="CS38" s="9">
         <f t="shared" si="95"/>
-        <v>237420.82598753396</v>
-      </c>
-      <c r="BN38" s="9">
+        <v>663623.33479505579</v>
+      </c>
+      <c r="CT38" s="9">
         <f t="shared" si="95"/>
-        <v>244543.45076715999</v>
-      </c>
-      <c r="BO38" s="9">
+        <v>683532.03483890754</v>
+      </c>
+      <c r="CU38" s="9">
         <f t="shared" si="95"/>
-        <v>251879.75429017478</v>
-      </c>
-      <c r="BP38" s="9">
+        <v>704037.99588407483</v>
+      </c>
+      <c r="CV38" s="9">
         <f t="shared" si="95"/>
-        <v>259436.14691888003</v>
-      </c>
-      <c r="BQ38" s="9">
+        <v>725159.13576059707</v>
+      </c>
+      <c r="CW38" s="9">
         <f t="shared" si="95"/>
-        <v>267219.23132644646</v>
-      </c>
-      <c r="BR38" s="9">
+        <v>746913.90983341495</v>
+      </c>
+      <c r="CX38" s="9">
         <f t="shared" si="95"/>
-        <v>275235.80826623988</v>
-      </c>
-      <c r="BS38" s="9">
-        <f t="shared" ref="BS38:CX38" si="96">BR38*(1+$AP$54)</f>
-        <v>283492.88251422707</v>
-      </c>
-      <c r="BT38" s="9">
+        <v>769321.32712841744</v>
+      </c>
+      <c r="CY38" s="9">
+        <f t="shared" ref="CY38:ED38" si="96">CX38*(1+$AP$54)</f>
+        <v>792400.96694226994</v>
+      </c>
+      <c r="CZ38" s="9">
         <f t="shared" si="96"/>
-        <v>291997.66898965387</v>
-      </c>
-      <c r="BU38" s="9">
+        <v>816172.99595053808</v>
+      </c>
+      <c r="DA38" s="9">
         <f t="shared" si="96"/>
-        <v>300757.59905934351</v>
-      </c>
-      <c r="BV38" s="9">
+        <v>840658.18582905421</v>
+      </c>
+      <c r="DB38" s="9">
         <f t="shared" si="96"/>
-        <v>309780.3270311238</v>
-      </c>
-      <c r="BW38" s="9">
+        <v>865877.93140392588</v>
+      </c>
+      <c r="DC38" s="9">
         <f t="shared" si="96"/>
-        <v>319073.73684205755</v>
-      </c>
-      <c r="BX38" s="9">
+        <v>891854.2693460437</v>
+      </c>
+      <c r="DD38" s="9">
         <f t="shared" si="96"/>
-        <v>328645.9489473193</v>
-      </c>
-      <c r="BY38" s="9">
+        <v>918609.89742642501</v>
+      </c>
+      <c r="DE38" s="9">
         <f t="shared" si="96"/>
-        <v>338505.3274157389</v>
-      </c>
-      <c r="BZ38" s="9">
+        <v>946168.19434921781</v>
+      </c>
+      <c r="DF38" s="9">
         <f t="shared" si="96"/>
-        <v>348660.48723821109</v>
-      </c>
-      <c r="CA38" s="9">
+        <v>974553.24017969437</v>
+      </c>
+      <c r="DG38" s="9">
         <f t="shared" si="96"/>
-        <v>359120.30185535742</v>
-      </c>
-      <c r="CB38" s="9">
+        <v>1003789.8373850852</v>
+      </c>
+      <c r="DH38" s="9">
         <f t="shared" si="96"/>
-        <v>369893.91091101815</v>
-      </c>
-      <c r="CC38" s="9">
+        <v>1033903.5325066377</v>
+      </c>
+      <c r="DI38" s="9">
         <f t="shared" si="96"/>
-        <v>380990.72823834867</v>
-      </c>
-      <c r="CD38" s="9">
+        <v>1064920.638481837</v>
+      </c>
+      <c r="DJ38" s="9">
         <f t="shared" si="96"/>
-        <v>392420.45008549915</v>
-      </c>
-      <c r="CE38" s="9">
+        <v>1096868.2576362921</v>
+      </c>
+      <c r="DK38" s="9">
         <f t="shared" si="96"/>
-        <v>404193.06358806411</v>
-      </c>
-      <c r="CF38" s="9">
+        <v>1129774.3053653808</v>
+      </c>
+      <c r="DL38" s="9">
         <f t="shared" si="96"/>
-        <v>416318.85549570603</v>
-      </c>
-      <c r="CG38" s="9">
+        <v>1163667.5345263423</v>
+      </c>
+      <c r="DM38" s="9">
         <f t="shared" si="96"/>
-        <v>428808.42116057721</v>
-      </c>
-      <c r="CH38" s="9">
+        <v>1198577.5605621326</v>
+      </c>
+      <c r="DN38" s="9">
         <f t="shared" si="96"/>
-        <v>441672.67379539454</v>
-      </c>
-      <c r="CI38" s="9">
+        <v>1234534.8873789967</v>
+      </c>
+      <c r="DO38" s="9">
         <f t="shared" si="96"/>
-        <v>454922.85400925641</v>
-      </c>
-      <c r="CJ38" s="9">
+        <v>1271570.9340003666</v>
+      </c>
+      <c r="DP38" s="9">
         <f t="shared" si="96"/>
-        <v>468570.53962953412</v>
-      </c>
-      <c r="CK38" s="9">
+        <v>1309718.0620203777</v>
+      </c>
+      <c r="DQ38" s="9">
         <f t="shared" si="96"/>
-        <v>482627.65581842017</v>
-      </c>
-      <c r="CL38" s="9">
+        <v>1349009.6038809891</v>
+      </c>
+      <c r="DR38" s="9">
         <f t="shared" si="96"/>
-        <v>497106.48549297277</v>
-      </c>
-      <c r="CM38" s="9">
+        <v>1389479.8919974188</v>
+      </c>
+      <c r="DS38" s="9">
         <f t="shared" si="96"/>
-        <v>512019.68005776196</v>
-      </c>
-      <c r="CN38" s="9">
+        <v>1431164.2887573414</v>
+      </c>
+      <c r="DT38" s="9">
         <f t="shared" si="96"/>
-        <v>527380.27045949479</v>
-      </c>
-      <c r="CO38" s="9">
+        <v>1474099.2174200618</v>
+      </c>
+      <c r="DU38" s="9">
         <f t="shared" si="96"/>
-        <v>543201.67857327964</v>
-      </c>
-      <c r="CP38" s="9">
+        <v>1518322.1939426637</v>
+      </c>
+      <c r="DV38" s="9">
         <f t="shared" si="96"/>
-        <v>559497.7289304781</v>
-      </c>
-      <c r="CQ38" s="9">
+        <v>1563871.8597609436</v>
+      </c>
+      <c r="DW38" s="9">
         <f t="shared" si="96"/>
-        <v>576282.66079839249</v>
-      </c>
-      <c r="CR38" s="9">
+        <v>1610788.015553772</v>
+      </c>
+      <c r="DX38" s="9">
         <f t="shared" si="96"/>
-        <v>593571.14062234433</v>
-      </c>
-      <c r="CS38" s="9">
+        <v>1659111.6560203852</v>
+      </c>
+      <c r="DY38" s="9">
         <f t="shared" si="96"/>
-        <v>611378.27484101465</v>
-      </c>
-      <c r="CT38" s="9">
+        <v>1708885.0057009968</v>
+      </c>
+      <c r="DZ38" s="9">
         <f t="shared" si="96"/>
-        <v>629719.62308624515</v>
-      </c>
-      <c r="CU38" s="9">
+        <v>1760151.5558720268</v>
+      </c>
+      <c r="EA38" s="9">
         <f t="shared" si="96"/>
-        <v>648611.21177883248</v>
-      </c>
-      <c r="CV38" s="9">
+        <v>1812956.1025481876</v>
+      </c>
+      <c r="EB38" s="9">
         <f t="shared" si="96"/>
-        <v>668069.54813219747</v>
-      </c>
-      <c r="CW38" s="9">
+        <v>1867344.7856246333</v>
+      </c>
+      <c r="EC38" s="9">
         <f t="shared" si="96"/>
-        <v>688111.63457616337</v>
-      </c>
-      <c r="CX38" s="9">
+        <v>1923365.1291933723</v>
+      </c>
+      <c r="ED38" s="9">
         <f t="shared" si="96"/>
-        <v>708754.98361344833</v>
-      </c>
-      <c r="CY38" s="9">
-        <f t="shared" ref="CY38:ED38" si="97">CX38*(1+$AP$54)</f>
-        <v>730017.63312185183</v>
-      </c>
-      <c r="CZ38" s="9">
+        <v>1981066.0830691736</v>
+      </c>
+      <c r="EE38" s="9">
+        <f t="shared" ref="EE38:FJ38" si="97">ED38*(1+$AP$54)</f>
+        <v>2040498.0655612489</v>
+      </c>
+      <c r="EF38" s="9">
         <f t="shared" si="97"/>
-        <v>751918.16211550741</v>
-      </c>
-      <c r="DA38" s="9">
+        <v>2101713.0075280867</v>
+      </c>
+      <c r="EG38" s="9">
         <f t="shared" si="97"/>
-        <v>774475.70697897265</v>
-      </c>
-      <c r="DB38" s="9">
+        <v>2164764.3977539293</v>
+      </c>
+      <c r="EH38" s="9">
         <f t="shared" si="97"/>
-        <v>797709.97818834183</v>
-      </c>
-      <c r="DC38" s="9">
+        <v>2229707.3296865472</v>
+      </c>
+      <c r="EI38" s="9">
         <f t="shared" si="97"/>
-        <v>821641.27753399208</v>
-      </c>
-      <c r="DD38" s="9">
+        <v>2296598.5495771435</v>
+      </c>
+      <c r="EJ38" s="9">
         <f t="shared" si="97"/>
-        <v>846290.51586001192</v>
-      </c>
-      <c r="DE38" s="9">
+        <v>2365496.5060644578</v>
+      </c>
+      <c r="EK38" s="9">
         <f t="shared" si="97"/>
-        <v>871679.23133581225</v>
-      </c>
-      <c r="DF38" s="9">
+        <v>2436461.4012463917</v>
+      </c>
+      <c r="EL38" s="9">
         <f t="shared" si="97"/>
-        <v>897829.60827588663</v>
-      </c>
-      <c r="DG38" s="9">
+        <v>2509555.2432837836</v>
+      </c>
+      <c r="EM38" s="9">
         <f t="shared" si="97"/>
-        <v>924764.49652416329</v>
-      </c>
-      <c r="DH38" s="9">
+        <v>2584841.9005822972</v>
+      </c>
+      <c r="EN38" s="9">
         <f t="shared" si="97"/>
-        <v>952507.43141988816</v>
-      </c>
-      <c r="DI38" s="9">
+        <v>2662387.1575997663</v>
+      </c>
+      <c r="EO38" s="9">
         <f t="shared" si="97"/>
-        <v>981082.65436248481</v>
-      </c>
-      <c r="DJ38" s="9">
+        <v>2742258.7723277593</v>
+      </c>
+      <c r="EP38" s="9">
         <f t="shared" si="97"/>
-        <v>1010515.1339933594</v>
-      </c>
-      <c r="DK38" s="9">
+        <v>2824526.5354975923</v>
+      </c>
+      <c r="EQ38" s="9">
         <f t="shared" si="97"/>
-        <v>1040830.5880131602</v>
-      </c>
-      <c r="DL38" s="9">
+        <v>2909262.33156252</v>
+      </c>
+      <c r="ER38" s="9">
         <f t="shared" si="97"/>
-        <v>1072055.505653555</v>
-      </c>
-      <c r="DM38" s="9">
+        <v>2996540.2015093956</v>
+      </c>
+      <c r="ES38" s="9">
         <f t="shared" si="97"/>
-        <v>1104217.1708231617</v>
-      </c>
-      <c r="DN38" s="9">
+        <v>3086436.4075546777</v>
+      </c>
+      <c r="ET38" s="9">
         <f t="shared" si="97"/>
-        <v>1137343.6859478566</v>
-      </c>
-      <c r="DO38" s="9">
+        <v>3179029.499781318</v>
+      </c>
+      <c r="EU38" s="9">
         <f t="shared" si="97"/>
-        <v>1171463.9965262923</v>
-      </c>
-      <c r="DP38" s="9">
+        <v>3274400.3847747575</v>
+      </c>
+      <c r="EV38" s="9">
         <f t="shared" si="97"/>
-        <v>1206607.9164220812</v>
-      </c>
-      <c r="DQ38" s="9">
+        <v>3372632.3963180003</v>
+      </c>
+      <c r="EW38" s="9">
         <f t="shared" si="97"/>
-        <v>1242806.1539147436</v>
-      </c>
-      <c r="DR38" s="9">
+        <v>3473811.3682075404</v>
+      </c>
+      <c r="EX38" s="9">
         <f t="shared" si="97"/>
-        <v>1280090.3385321859</v>
-      </c>
-      <c r="DS38" s="9">
+        <v>3578025.7092537666</v>
+      </c>
+      <c r="EY38" s="9">
         <f t="shared" si="97"/>
-        <v>1318493.0486881514</v>
-      </c>
-      <c r="DT38" s="9">
+        <v>3685366.4805313796</v>
+      </c>
+      <c r="EZ38" s="9">
         <f t="shared" si="97"/>
-        <v>1358047.8401487961</v>
-      </c>
-      <c r="DU38" s="9">
+        <v>3795927.4749473212</v>
+      </c>
+      <c r="FA38" s="9">
         <f t="shared" si="97"/>
-        <v>1398789.2753532601</v>
-      </c>
-      <c r="DV38" s="9">
+        <v>3909805.2991957408</v>
+      </c>
+      <c r="FB38" s="9">
         <f t="shared" si="97"/>
-        <v>1440752.953613858</v>
-      </c>
-      <c r="DW38" s="9">
+        <v>4027099.458171613</v>
+      </c>
+      <c r="FC38" s="9">
         <f t="shared" si="97"/>
-        <v>1483975.5422222738</v>
-      </c>
-      <c r="DX38" s="9">
+        <v>4147912.4419167615</v>
+      </c>
+      <c r="FD38" s="9">
         <f t="shared" si="97"/>
-        <v>1528494.808488942</v>
-      </c>
-      <c r="DY38" s="9">
+        <v>4272349.8151742648</v>
+      </c>
+      <c r="FE38" s="9">
         <f t="shared" si="97"/>
-        <v>1574349.6527436103</v>
-      </c>
-      <c r="DZ38" s="9">
+        <v>4400520.3096294925</v>
+      </c>
+      <c r="FF38" s="9">
         <f t="shared" si="97"/>
-        <v>1621580.1423259187</v>
-      </c>
-      <c r="EA38" s="9">
+        <v>4532535.9189183777</v>
+      </c>
+      <c r="FG38" s="9">
         <f t="shared" si="97"/>
-        <v>1670227.5465956964</v>
-      </c>
-      <c r="EB38" s="9">
+        <v>4668511.996485929</v>
+      </c>
+      <c r="FH38" s="9">
         <f t="shared" si="97"/>
-        <v>1720334.3729935673</v>
-      </c>
-      <c r="EC38" s="9">
+        <v>4808567.3563805073</v>
+      </c>
+      <c r="FI38" s="9">
         <f t="shared" si="97"/>
-        <v>1771944.4041833743</v>
-      </c>
-      <c r="ED38" s="9">
+        <v>4952824.3770719226</v>
+      </c>
+      <c r="FJ38" s="9">
         <f t="shared" si="97"/>
-        <v>1825102.7363088755</v>
-      </c>
-      <c r="EE38" s="9">
-        <f t="shared" ref="EE38:FJ38" si="98">ED38*(1+$AP$54)</f>
-        <v>1879855.8183981418</v>
-      </c>
-      <c r="EF38" s="9">
+        <v>5101409.1083840802</v>
+      </c>
+      <c r="FK38" s="9">
+        <f t="shared" ref="FK38:GP38" si="98">FJ38*(1+$AP$54)</f>
+        <v>5254451.3816356026</v>
+      </c>
+      <c r="FL38" s="9">
         <f t="shared" si="98"/>
-        <v>1936251.492950086</v>
-      </c>
-      <c r="EG38" s="9">
+        <v>5412084.9230846707</v>
+      </c>
+      <c r="FM38" s="9">
         <f t="shared" si="98"/>
-        <v>1994339.0377385886</v>
-      </c>
-      <c r="EH38" s="9">
+        <v>5574447.4707772108</v>
+      </c>
+      <c r="FN38" s="9">
         <f t="shared" si="98"/>
-        <v>2054169.2088707464</v>
-      </c>
-      <c r="EI38" s="9">
+        <v>5741680.8949005269</v>
+      </c>
+      <c r="FO38" s="9">
         <f t="shared" si="98"/>
-        <v>2115794.2851368687</v>
-      </c>
-      <c r="EJ38" s="9">
+        <v>5913931.3217475424</v>
+      </c>
+      <c r="FP38" s="9">
         <f t="shared" si="98"/>
-        <v>2179268.1136909747</v>
-      </c>
-      <c r="EK38" s="9">
+        <v>6091349.2613999685</v>
+      </c>
+      <c r="FQ38" s="9">
         <f t="shared" si="98"/>
-        <v>2244646.1571017038</v>
-      </c>
-      <c r="EL38" s="9">
+        <v>6274089.7392419679</v>
+      </c>
+      <c r="FR38" s="9">
         <f t="shared" si="98"/>
-        <v>2311985.5418147552</v>
-      </c>
-      <c r="EM38" s="9">
+        <v>6462312.4314192273</v>
+      </c>
+      <c r="FS38" s="9">
         <f t="shared" si="98"/>
-        <v>2381345.1080691977</v>
-      </c>
-      <c r="EN38" s="9">
+        <v>6656181.8043618044</v>
+      </c>
+      <c r="FT38" s="9">
         <f t="shared" si="98"/>
-        <v>2452785.4613112737</v>
-      </c>
-      <c r="EO38" s="9">
+        <v>6855867.2584926588</v>
+      </c>
+      <c r="FU38" s="9">
         <f t="shared" si="98"/>
-        <v>2526369.025150612</v>
-      </c>
-      <c r="EP38" s="9">
+        <v>7061543.276247439</v>
+      </c>
+      <c r="FV38" s="9">
         <f t="shared" si="98"/>
-        <v>2602160.0959051303</v>
-      </c>
-      <c r="EQ38" s="9">
+        <v>7273389.5745348623</v>
+      </c>
+      <c r="FW38" s="9">
         <f t="shared" si="98"/>
-        <v>2680224.8987822845</v>
-      </c>
-      <c r="ER38" s="9">
+        <v>7491591.2617709087</v>
+      </c>
+      <c r="FX38" s="9">
         <f t="shared" si="98"/>
-        <v>2760631.6457457528</v>
-      </c>
-      <c r="ES38" s="9">
+        <v>7716338.9996240363</v>
+      </c>
+      <c r="FY38" s="9">
         <f t="shared" si="98"/>
-        <v>2843450.5951181254</v>
-      </c>
-      <c r="ET38" s="9">
+        <v>7947829.1696127579</v>
+      </c>
+      <c r="FZ38" s="9">
         <f t="shared" si="98"/>
-        <v>2928754.1129716691</v>
-      </c>
-      <c r="EU38" s="9">
+        <v>8186264.0447011404</v>
+      </c>
+      <c r="GA38" s="9">
         <f t="shared" si="98"/>
-        <v>3016616.7363608191</v>
-      </c>
-      <c r="EV38" s="9">
+        <v>8431851.966042174</v>
+      </c>
+      <c r="GB38" s="9">
         <f t="shared" si="98"/>
-        <v>3107115.2384516438</v>
-      </c>
-      <c r="EW38" s="9">
+        <v>8684807.5250234399</v>
+      </c>
+      <c r="GC38" s="9">
         <f t="shared" si="98"/>
-        <v>3200328.6956051933</v>
-      </c>
-      <c r="EX38" s="9">
+        <v>8945351.7507741433</v>
+      </c>
+      <c r="GD38" s="9">
         <f t="shared" si="98"/>
-        <v>3296338.5564733492</v>
-      </c>
-      <c r="EY38" s="9">
+        <v>9213712.3032973669</v>
+      </c>
+      <c r="GE38" s="9">
         <f t="shared" si="98"/>
-        <v>3395228.7131675496</v>
-      </c>
-      <c r="EZ38" s="9">
+        <v>9490123.6723962873</v>
+      </c>
+      <c r="GF38" s="9">
         <f t="shared" si="98"/>
-        <v>3497085.5745625761</v>
-      </c>
-      <c r="FA38" s="9">
+        <v>9774827.3825681768</v>
+      </c>
+      <c r="GG38" s="9">
         <f t="shared" si="98"/>
-        <v>3601998.1417994536</v>
-      </c>
-      <c r="FB38" s="9">
+        <v>10068072.204045223</v>
+      </c>
+      <c r="GH38" s="9">
         <f t="shared" si="98"/>
-        <v>3710058.0860534376</v>
-      </c>
-      <c r="FC38" s="9">
+        <v>10370114.370166579</v>
+      </c>
+      <c r="GI38" s="9">
         <f t="shared" si="98"/>
-        <v>3821359.8286350407</v>
-      </c>
-      <c r="FD38" s="9">
+        <v>10681217.801271576</v>
+      </c>
+      <c r="GJ38" s="9">
         <f t="shared" si="98"/>
-        <v>3936000.6234940919</v>
-      </c>
-      <c r="FE38" s="9">
+        <v>11001654.335309723</v>
+      </c>
+      <c r="GK38" s="9">
         <f t="shared" si="98"/>
-        <v>4054080.6421989147</v>
-      </c>
-      <c r="FF38" s="9">
+        <v>11331703.965369016</v>
+      </c>
+      <c r="GL38" s="9">
         <f t="shared" si="98"/>
-        <v>4175703.061464882</v>
-      </c>
-      <c r="FG38" s="9">
+        <v>11671655.084330088</v>
+      </c>
+      <c r="GM38" s="9">
         <f t="shared" si="98"/>
-        <v>4300974.1533088284</v>
-      </c>
-      <c r="FH38" s="9">
+        <v>12021804.73685999</v>
+      </c>
+      <c r="GN38" s="9">
         <f t="shared" si="98"/>
-        <v>4430003.3779080929</v>
-      </c>
-      <c r="FI38" s="9">
+        <v>12382458.878965789</v>
+      </c>
+      <c r="GO38" s="9">
         <f t="shared" si="98"/>
-        <v>4562903.4792453358</v>
-      </c>
-      <c r="FJ38" s="9">
+        <v>12753932.645334763</v>
+      </c>
+      <c r="GP38" s="9">
         <f t="shared" si="98"/>
-        <v>4699790.5836226959</v>
-      </c>
-      <c r="FK38" s="9">
-        <f t="shared" ref="FK38:GP38" si="99">FJ38*(1+$AP$54)</f>
-        <v>4840784.301131377</v>
-      </c>
-      <c r="FL38" s="9">
+        <v>13136550.624694807</v>
+      </c>
+      <c r="GQ38" s="9">
+        <f t="shared" ref="GQ38:HA38" si="99">GP38*(1+$AP$54)</f>
+        <v>13530647.143435651</v>
+      </c>
+      <c r="GR38" s="9">
         <f t="shared" si="99"/>
-        <v>4986007.8301653182</v>
-      </c>
-      <c r="FM38" s="9">
+        <v>13936566.557738721</v>
+      </c>
+      <c r="GS38" s="9">
         <f t="shared" si="99"/>
-        <v>5135588.065070278</v>
-      </c>
-      <c r="FN38" s="9">
+        <v>14354663.554470884</v>
+      </c>
+      <c r="GT38" s="9">
         <f t="shared" si="99"/>
-        <v>5289655.7070223866</v>
-      </c>
-      <c r="FO38" s="9">
+        <v>14785303.461105011</v>
+      </c>
+      <c r="GU38" s="9">
         <f t="shared" si="99"/>
-        <v>5448345.3782330584</v>
-      </c>
-      <c r="FP38" s="9">
+        <v>15228862.564938162</v>
+      </c>
+      <c r="GV38" s="9">
         <f t="shared" si="99"/>
-        <v>5611795.7395800501</v>
-      </c>
-      <c r="FQ38" s="9">
+        <v>15685728.441886308</v>
+      </c>
+      <c r="GW38" s="9">
         <f t="shared" si="99"/>
-        <v>5780149.6117674522</v>
-      </c>
-      <c r="FR38" s="9">
+        <v>16156300.295142896</v>
+      </c>
+      <c r="GX38" s="9">
         <f t="shared" si="99"/>
-        <v>5953554.1001204755</v>
-      </c>
-      <c r="FS38" s="9">
+        <v>16640989.303997183</v>
+      </c>
+      <c r="GY38" s="9">
         <f t="shared" si="99"/>
-        <v>6132160.7231240897</v>
-      </c>
-      <c r="FT38" s="9">
+        <v>17140218.9831171</v>
+      </c>
+      <c r="GZ38" s="9">
         <f t="shared" si="99"/>
-        <v>6316125.5448178127</v>
-      </c>
-      <c r="FU38" s="9">
+        <v>17654425.552610613</v>
+      </c>
+      <c r="HA38" s="9">
         <f t="shared" si="99"/>
-        <v>6505609.311162347</v>
-      </c>
-      <c r="FV38" s="9">
-        <f t="shared" si="99"/>
-        <v>6700777.5904972171</v>
-      </c>
-      <c r="FW38" s="9">
-        <f t="shared" si="99"/>
-        <v>6901800.9182121335</v>
-      </c>
-      <c r="FX38" s="9">
-        <f t="shared" si="99"/>
-        <v>7108854.9457584973</v>
-      </c>
-      <c r="FY38" s="9">
-        <f t="shared" si="99"/>
-        <v>7322120.5941312527</v>
-      </c>
-      <c r="FZ38" s="9">
-        <f t="shared" si="99"/>
-        <v>7541784.2119551906</v>
-      </c>
-      <c r="GA38" s="9">
-        <f t="shared" si="99"/>
-        <v>7768037.7383138463</v>
-      </c>
-      <c r="GB38" s="9">
-        <f t="shared" si="99"/>
-        <v>8001078.8704632623</v>
-      </c>
-      <c r="GC38" s="9">
-        <f t="shared" si="99"/>
-        <v>8241111.2365771607</v>
-      </c>
-      <c r="GD38" s="9">
-        <f t="shared" si="99"/>
-        <v>8488344.5736744758</v>
-      </c>
-      <c r="GE38" s="9">
-        <f t="shared" si="99"/>
-        <v>8742994.91088471</v>
-      </c>
-      <c r="GF38" s="9">
-        <f t="shared" si="99"/>
-        <v>9005284.7582112513</v>
-      </c>
-      <c r="GG38" s="9">
-        <f t="shared" si="99"/>
-        <v>9275443.3009575885</v>
-      </c>
-      <c r="GH38" s="9">
-        <f t="shared" si="99"/>
-        <v>9553706.5999863166</v>
-      </c>
-      <c r="GI38" s="9">
-        <f t="shared" si="99"/>
-        <v>9840317.7979859058</v>
-      </c>
-      <c r="GJ38" s="9">
-        <f t="shared" si="99"/>
-        <v>10135527.331925483</v>
-      </c>
-      <c r="GK38" s="9">
-        <f t="shared" si="99"/>
-        <v>10439593.151883248</v>
-      </c>
-      <c r="GL38" s="9">
-        <f t="shared" si="99"/>
-        <v>10752780.946439747</v>
-      </c>
-      <c r="GM38" s="9">
-        <f t="shared" si="99"/>
-        <v>11075364.374832939</v>
-      </c>
-      <c r="GN38" s="9">
-        <f t="shared" si="99"/>
-        <v>11407625.306077927</v>
-      </c>
-      <c r="GO38" s="9">
-        <f t="shared" si="99"/>
-        <v>11749854.065260265</v>
-      </c>
-      <c r="GP38" s="9">
-        <f t="shared" si="99"/>
-        <v>12102349.687218074</v>
-      </c>
-      <c r="GQ38" s="9">
-        <f t="shared" ref="GQ38:HA38" si="100">GP38*(1+$AP$54)</f>
-        <v>12465420.177834617</v>
-      </c>
-      <c r="GR38" s="9">
-        <f t="shared" si="100"/>
-        <v>12839382.783169655</v>
-      </c>
-      <c r="GS38" s="9">
-        <f t="shared" si="100"/>
-        <v>13224564.266664745</v>
-      </c>
-      <c r="GT38" s="9">
-        <f t="shared" si="100"/>
-        <v>13621301.194664689</v>
-      </c>
-      <c r="GU38" s="9">
-        <f t="shared" si="100"/>
-        <v>14029940.23050463</v>
-      </c>
-      <c r="GV38" s="9">
-        <f t="shared" si="100"/>
-        <v>14450838.43741977</v>
-      </c>
-      <c r="GW38" s="9">
-        <f t="shared" si="100"/>
-        <v>14884363.590542363</v>
-      </c>
-      <c r="GX38" s="9">
-        <f t="shared" si="100"/>
-        <v>15330894.498258634</v>
-      </c>
-      <c r="GY38" s="9">
-        <f t="shared" si="100"/>
-        <v>15790821.333206393</v>
-      </c>
-      <c r="GZ38" s="9">
-        <f t="shared" si="100"/>
-        <v>16264545.973202584</v>
-      </c>
-      <c r="HA38" s="9">
-        <f t="shared" si="100"/>
-        <v>16752482.352398662</v>
+        <v>18184058.319188934</v>
       </c>
     </row>
     <row r="39" spans="2:209" x14ac:dyDescent="0.45">
@@ -5512,47 +5551,47 @@
         <v>32</v>
       </c>
       <c r="C39" s="10">
-        <f t="shared" ref="C39:M39" si="101">C38/C40</f>
+        <f t="shared" ref="C39:M39" si="100">C38/C40</f>
         <v>-0.56527190095596302</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>-0.57488433575677467</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" ref="E39" si="102">E38/E40</f>
+        <f t="shared" ref="E39" si="101">E38/E40</f>
         <v>-8.7981146897093618E-2</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" ref="F39" si="103">F38/F40</f>
+        <f t="shared" ref="F39" si="102">F38/F40</f>
         <v>-0.47061363339003032</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" ref="G39" si="104">G38/G40</f>
+        <f t="shared" ref="G39" si="103">G38/G40</f>
         <v>-0.24268165185572418</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" ref="H39" si="105">H38/H40</f>
+        <f t="shared" ref="H39" si="104">H38/H40</f>
         <v>-0.30095923261390889</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" ref="I39" si="106">I38/I40</f>
+        <f t="shared" ref="I39" si="105">I38/I40</f>
         <v>-0.4148121560181865</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>-0.22407628128724671</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2.3809523809523812E-3</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4.2603550295857988E-2</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.16102683780630106</v>
       </c>
       <c r="N39" s="10">
@@ -5560,35 +5599,35 @@
         <v>0.20161290322580644</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" ref="O39:R39" si="107">O38/O40</f>
-        <v>2.9319832811059137E-2</v>
+        <f>O38/O40</f>
+        <v>0.29080459770114941</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" si="107"/>
-        <v>0.2267694099539169</v>
+        <f t="shared" ref="P39:R39" si="106">P38/P40</f>
+        <v>0.20226100441379308</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="107"/>
-        <v>0.41839396679723473</v>
+        <f t="shared" si="106"/>
+        <v>0.39461278979310299</v>
       </c>
       <c r="R39" s="10">
-        <f t="shared" si="107"/>
-        <v>0.50209527764861717</v>
+        <f t="shared" si="106"/>
+        <v>0.47937809268965498</v>
       </c>
       <c r="W39" s="14">
         <f>W38/W40</f>
         <v>-2.1532372571802183</v>
       </c>
       <c r="X39" s="14">
-        <f t="shared" ref="X39:Z39" si="108">X38/X40</f>
+        <f t="shared" ref="X39:Z39" si="107">X38/X40</f>
         <v>-5.6120689405829607</v>
       </c>
       <c r="Y39" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-1.5213179952987155</v>
       </c>
       <c r="Z39" s="14">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-1.6923841441458192</v>
       </c>
       <c r="AA39" s="14">
@@ -5600,44 +5639,44 @@
         <v>0.38709677419354838</v>
       </c>
       <c r="AC39" s="14">
-        <f t="shared" ref="AC39:AL39" si="109">AC38/AC40</f>
-        <v>1.1765784872108278</v>
+        <f t="shared" ref="AC39:AL39" si="108">AC38/AC40</f>
+        <v>1.3670564845977005</v>
       </c>
       <c r="AD39" s="14">
-        <f t="shared" si="109"/>
-        <v>4.9648938383480301</v>
+        <f t="shared" si="108"/>
+        <v>5.3122992717584818</v>
       </c>
       <c r="AE39" s="14">
-        <f t="shared" si="109"/>
-        <v>9.4511553260488217</v>
+        <f t="shared" si="108"/>
+        <v>10.052485848260307</v>
       </c>
       <c r="AF39" s="14">
-        <f t="shared" si="109"/>
-        <v>17.268122564146271</v>
+        <f t="shared" si="108"/>
+        <v>18.435074648384358</v>
       </c>
       <c r="AG39" s="14">
-        <f t="shared" si="109"/>
-        <v>23.654219128796196</v>
+        <f t="shared" si="108"/>
+        <v>25.259259863887916</v>
       </c>
       <c r="AH39" s="14">
-        <f t="shared" si="109"/>
-        <v>34.576515597827502</v>
+        <f t="shared" si="108"/>
+        <v>37.067100026085377</v>
       </c>
       <c r="AI39" s="14">
-        <f t="shared" si="109"/>
-        <v>49.498819325217021</v>
+        <f t="shared" si="108"/>
+        <v>53.116665990399149</v>
       </c>
       <c r="AJ39" s="14">
-        <f t="shared" si="109"/>
-        <v>68.8092311912349</v>
+        <f t="shared" si="108"/>
+        <v>73.933971281023517</v>
       </c>
       <c r="AK39" s="14">
-        <f t="shared" si="109"/>
-        <v>93.15557908018495</v>
+        <f t="shared" si="108"/>
+        <v>100.66126078012817</v>
       </c>
       <c r="AL39" s="14">
-        <f t="shared" si="109"/>
-        <v>123.13854547281336</v>
+        <f t="shared" si="108"/>
+        <v>133.35402804415776</v>
       </c>
     </row>
     <row r="40" spans="2:209" x14ac:dyDescent="0.45">
@@ -5681,20 +5720,19 @@
         <v>868</v>
       </c>
       <c r="O40" s="3">
-        <f>N40</f>
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" ref="P40:R40" si="110">O40</f>
-        <v>868</v>
+        <f>O40</f>
+        <v>870</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="110"/>
-        <v>868</v>
+        <f t="shared" ref="Q40:R40" si="109">P40</f>
+        <v>870</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="110"/>
-        <v>868</v>
+        <f t="shared" si="109"/>
+        <v>870</v>
       </c>
       <c r="W40" s="3">
         <f>4367688683/(1000*1000*10)</f>
@@ -5720,44 +5758,44 @@
         <v>868</v>
       </c>
       <c r="AC40" s="3">
-        <f>AB40</f>
-        <v>868</v>
+        <f>R40</f>
+        <v>870</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" ref="AD40:AL40" si="111">AC40</f>
-        <v>868</v>
+        <f t="shared" ref="AD40:AL40" si="110">AC40</f>
+        <v>870</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="111"/>
-        <v>868</v>
+        <f t="shared" si="110"/>
+        <v>870</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="111"/>
-        <v>868</v>
+        <f t="shared" si="110"/>
+        <v>870</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" si="111"/>
-        <v>868</v>
+        <f t="shared" si="110"/>
+        <v>870</v>
       </c>
       <c r="AH40" s="3">
-        <f t="shared" si="111"/>
-        <v>868</v>
+        <f t="shared" si="110"/>
+        <v>870</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="111"/>
-        <v>868</v>
+        <f t="shared" si="110"/>
+        <v>870</v>
       </c>
       <c r="AJ40" s="3">
-        <f t="shared" si="111"/>
-        <v>868</v>
+        <f t="shared" si="110"/>
+        <v>870</v>
       </c>
       <c r="AK40" s="3">
-        <f t="shared" si="111"/>
-        <v>868</v>
+        <f t="shared" si="110"/>
+        <v>870</v>
       </c>
       <c r="AL40" s="3">
-        <f t="shared" si="111"/>
-        <v>868</v>
+        <f t="shared" si="110"/>
+        <v>870</v>
       </c>
     </row>
     <row r="42" spans="2:209" x14ac:dyDescent="0.45">
@@ -5770,47 +5808,47 @@
         <v>0.725943704996727</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" ref="H42:N42" si="112">H22/D22-1</f>
+        <f t="shared" ref="H42:M42" si="111">H22/D22-1</f>
         <v>0.57708871662360028</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>0.68421052631578938</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>0.64961741024140562</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>0.6415929203539823</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>0.67121791370835604</v>
       </c>
       <c r="M42" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>0.65299773755656121</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="112"/>
+        <f>N22/J22-1</f>
         <v>0.7049842837898519</v>
       </c>
       <c r="O42" s="12">
-        <f t="shared" ref="O42" si="113">O22/K22-1</f>
-        <v>0.4445128994994223</v>
+        <f>O22/K22-1</f>
+        <v>0.71043511744320376</v>
       </c>
       <c r="P42" s="12">
-        <f t="shared" ref="P42" si="114">P22/L22-1</f>
+        <f>P22/L22-1</f>
         <v>0.46656862745098038</v>
       </c>
       <c r="Q42" s="12">
-        <f t="shared" ref="Q42" si="115">Q22/M22-1</f>
+        <f>Q22/M22-1</f>
         <v>0.49047619047619051</v>
       </c>
       <c r="R42" s="12">
-        <f t="shared" ref="R42" si="116">R22/N22-1</f>
+        <f>R22/N22-1</f>
         <v>0.50094811693442209</v>
       </c>
       <c r="X42" s="12">
@@ -5818,60 +5856,60 @@
         <v>1.0091162069149369</v>
       </c>
       <c r="Y42" s="12">
-        <f t="shared" ref="Y42:AL42" si="117">Y20/X20-1</f>
+        <f t="shared" ref="Y42:AL42" si="112">Y20/X20-1</f>
         <v>-0.14661722199893945</v>
       </c>
       <c r="Z42" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="112"/>
         <v>1.1027184271240844</v>
       </c>
       <c r="AA42" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="112"/>
         <v>0.68862703940463699</v>
       </c>
       <c r="AB42" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="112"/>
         <v>0.71116196287821021</v>
       </c>
       <c r="AC42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.58207858675912161</v>
+        <f t="shared" si="112"/>
+        <v>0.61960541522205714</v>
       </c>
       <c r="AD42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.50756940929701111</v>
+        <f t="shared" si="112"/>
+        <v>0.48471602811431236</v>
       </c>
       <c r="AE42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.53256449135465944</v>
+        <f t="shared" si="112"/>
+        <v>0.52466646046444243</v>
       </c>
       <c r="AF42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.55888080174223265</v>
+        <f t="shared" si="112"/>
+        <v>0.55994680367875049</v>
       </c>
       <c r="AG42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.34277459637676677</v>
+        <f t="shared" si="112"/>
+        <v>0.34190206426534564</v>
       </c>
       <c r="AH42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.36283789898569152</v>
+        <f t="shared" si="112"/>
+        <v>0.36575592311658967</v>
       </c>
       <c r="AI42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.39251078556888763</v>
+        <f t="shared" si="112"/>
+        <v>0.39330244007659454</v>
       </c>
       <c r="AJ42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.34942016015584776</v>
+        <f t="shared" si="112"/>
+        <v>0.35072314984611408</v>
       </c>
       <c r="AK42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.35426250147220961</v>
+        <f t="shared" si="112"/>
+        <v>0.36038984853025902</v>
       </c>
       <c r="AL42" s="12">
-        <f t="shared" si="117"/>
-        <v>0.28673102796572603</v>
+        <f t="shared" si="112"/>
+        <v>0.28918285834984281</v>
       </c>
     </row>
     <row r="43" spans="2:209" x14ac:dyDescent="0.45">
@@ -5883,51 +5921,52 @@
         <v>1</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" ref="D43:N43" si="118">D24/D22</f>
+        <f t="shared" ref="D43:N43" si="113">D24/D22</f>
         <v>1</v>
       </c>
       <c r="E43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.5636262602206874</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.59622521314656929</v>
       </c>
       <c r="G43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.63817951959544883</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.67777170944838883</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.69131787330316741</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.67714414009878765</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.68810165575664228</v>
       </c>
       <c r="L43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.69967320261437904</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.69546621043627033</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.70555701869897292</v>
       </c>
       <c r="O43" s="12">
-        <v>0.7</v>
+        <f t="shared" ref="O43" si="114">O24/O22</f>
+        <v>0.70103556956325974</v>
       </c>
       <c r="P43" s="12">
         <v>0.7</v>
@@ -5940,24 +5979,24 @@
       </c>
       <c r="X43" s="12"/>
       <c r="Y43" s="12">
-        <f t="shared" ref="Y43:AB43" si="119">Y24/Y22</f>
+        <f t="shared" ref="Y43:AB43" si="115">Y24/Y22</f>
         <v>0.75061367069486407</v>
       </c>
       <c r="Z43" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="115"/>
         <v>0.61291768019459736</v>
       </c>
       <c r="AA43" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="115"/>
         <v>0.67311780850159131</v>
       </c>
       <c r="AB43" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="115"/>
         <v>0.6979399737674562</v>
       </c>
       <c r="AC43" s="12">
-        <f t="shared" ref="AC43" si="120">AC24/AC22</f>
-        <v>0.7</v>
+        <f t="shared" ref="AC43" si="116">AC24/AC22</f>
+        <v>0.70023166917641599</v>
       </c>
       <c r="AD43" s="12">
         <v>0.7</v>
@@ -6003,9 +6042,7 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
-      <c r="O44" s="12">
-        <v>0.25168000000000001</v>
-      </c>
+      <c r="O44" s="12"/>
       <c r="P44" s="12">
         <v>0.25168000000000001</v>
       </c>
@@ -6017,48 +6054,48 @@
       </c>
       <c r="AC44" s="12">
         <f>AC37/AC36</f>
-        <v>0.25168000000000001</v>
+        <v>0.2019223947579441</v>
       </c>
       <c r="AD44" s="12">
         <f>AC44</f>
-        <v>0.25168000000000001</v>
+        <v>0.2019223947579441</v>
       </c>
       <c r="AE44" s="12">
-        <f t="shared" ref="AE44:AL44" si="121">AD44</f>
-        <v>0.25168000000000001</v>
+        <f t="shared" ref="AE44:AL44" si="117">AD44</f>
+        <v>0.2019223947579441</v>
       </c>
       <c r="AF44" s="12">
-        <f t="shared" si="121"/>
-        <v>0.25168000000000001</v>
+        <f t="shared" si="117"/>
+        <v>0.2019223947579441</v>
       </c>
       <c r="AG44" s="12">
-        <f t="shared" si="121"/>
-        <v>0.25168000000000001</v>
+        <f t="shared" si="117"/>
+        <v>0.2019223947579441</v>
       </c>
       <c r="AH44" s="12">
-        <f t="shared" si="121"/>
-        <v>0.25168000000000001</v>
+        <f t="shared" si="117"/>
+        <v>0.2019223947579441</v>
       </c>
       <c r="AI44" s="12">
-        <f t="shared" si="121"/>
-        <v>0.25168000000000001</v>
+        <f t="shared" si="117"/>
+        <v>0.2019223947579441</v>
       </c>
       <c r="AJ44" s="12">
-        <f t="shared" si="121"/>
-        <v>0.25168000000000001</v>
+        <f t="shared" si="117"/>
+        <v>0.2019223947579441</v>
       </c>
       <c r="AK44" s="12">
-        <f t="shared" si="121"/>
-        <v>0.25168000000000001</v>
+        <f t="shared" si="117"/>
+        <v>0.2019223947579441</v>
       </c>
       <c r="AL44" s="12">
-        <f t="shared" si="121"/>
-        <v>0.25168000000000001</v>
+        <f t="shared" si="117"/>
+        <v>0.2019223947579441</v>
       </c>
     </row>
     <row r="45" spans="2:209" x14ac:dyDescent="0.45">
       <c r="B45" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -6067,43 +6104,44 @@
         <v>0.13225371120107962</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" ref="F45:N45" si="122">F25/F22</f>
+        <f t="shared" ref="F45:N45" si="118">F25/F22</f>
         <v>0.14362856571432805</v>
       </c>
       <c r="G45" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="118"/>
         <v>0.16498103666245259</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="118"/>
         <v>0.18951392681594756</v>
       </c>
       <c r="I45" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="118"/>
         <v>0.18509615384615385</v>
       </c>
       <c r="J45" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="118"/>
         <v>0.19667714414009879</v>
       </c>
       <c r="K45" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="118"/>
         <v>0.21447824412783981</v>
       </c>
       <c r="L45" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="118"/>
         <v>0.22385620915032681</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="118"/>
         <v>0.223267750213858</v>
       </c>
       <c r="N45" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="118"/>
         <v>0.2270213326310245</v>
       </c>
       <c r="O45" s="12">
-        <v>0.23</v>
+        <f t="shared" ref="O45" si="119">O25/O22</f>
+        <v>0.25123818099954975</v>
       </c>
       <c r="P45" s="12">
         <v>0.23</v>
@@ -6119,16 +6157,16 @@
         <v>0.11786796398241797</v>
       </c>
       <c r="AA45" s="12">
-        <f t="shared" ref="AA45:AC45" si="123">AA25/AA22</f>
+        <f t="shared" ref="AA45:AC45" si="120">AA25/AA22</f>
         <v>0.18531355899444654</v>
       </c>
       <c r="AB45" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="120"/>
         <v>0.22274515855258081</v>
       </c>
       <c r="AC45" s="12">
-        <f t="shared" si="123"/>
-        <v>0.23</v>
+        <f t="shared" si="120"/>
+        <v>0.23475123263110712</v>
       </c>
       <c r="AD45" s="12">
         <v>0.23</v>
@@ -6160,7 +6198,7 @@
     </row>
     <row r="46" spans="2:209" x14ac:dyDescent="0.45">
       <c r="B46" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12">
@@ -6168,47 +6206,48 @@
         <v>8.5487586383414582E-2</v>
       </c>
       <c r="E46" s="12">
-        <f t="shared" ref="E46:N46" si="124">E27/D27-1</f>
+        <f t="shared" ref="E46:M46" si="121">E27/D27-1</f>
         <v>-2.9709974062721134E-2</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="121"/>
         <v>-1.1421628189550392E-2</v>
       </c>
       <c r="G46" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="121"/>
         <v>-0.14233038348082605</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="121"/>
         <v>9.2003439380911489E-2</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="121"/>
         <v>3.6745406824147064E-2</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="121"/>
         <v>-0.13924050632911389</v>
       </c>
       <c r="K46" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="121"/>
         <v>-5.8823529411764497E-3</v>
       </c>
       <c r="L46" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="121"/>
         <v>0.23372781065088755</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="121"/>
         <v>1.4388489208633004E-2</v>
       </c>
       <c r="N46" s="12">
-        <f t="shared" si="124"/>
+        <f>N27/M27-1</f>
         <v>0.13711583924349879</v>
       </c>
       <c r="O46" s="12">
-        <v>0</v>
+        <f>O27/N27-1</f>
+        <v>9.9792099792099798E-2</v>
       </c>
       <c r="P46" s="12">
         <v>0</v>
@@ -6224,24 +6263,24 @@
         <v>0.32906868242404519</v>
       </c>
       <c r="Y46" s="12">
-        <f t="shared" ref="Y46:AC46" si="125">Y27/X27-1</f>
+        <f t="shared" ref="Y46:AC46" si="122">Y27/X27-1</f>
         <v>0.1928954445178015</v>
       </c>
       <c r="Z46" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="122"/>
         <v>1.2045086393088553</v>
       </c>
       <c r="AA46" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="122"/>
         <v>-0.10293307207152036</v>
       </c>
       <c r="AB46" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="122"/>
         <v>0.1324232081911263</v>
       </c>
       <c r="AC46" s="12">
-        <f t="shared" si="125"/>
-        <v>0.1597347799879445</v>
+        <f t="shared" si="122"/>
+        <v>0.27546714888487034</v>
       </c>
       <c r="AD46" s="12">
         <v>0.1</v>
@@ -6273,7 +6312,7 @@
     </row>
     <row r="47" spans="2:209" x14ac:dyDescent="0.45">
       <c r="B47" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12">
@@ -6281,47 +6320,48 @@
         <v>-6.0606060606060552E-2</v>
       </c>
       <c r="E47" s="12">
-        <f t="shared" ref="E47:N47" si="126">E28/D28-1</f>
+        <f t="shared" ref="E47:M47" si="123">E28/D28-1</f>
         <v>0</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>-0.19354838709677424</v>
       </c>
       <c r="G47" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>0.96000000000000019</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>1.4489795918367343</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>0.34166666666666679</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>-6.8322981366459756E-2</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>-0.11111111111111116</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>0.125</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" si="126"/>
+        <f>N28/M28-1</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="O47" s="12">
-        <v>0.1</v>
+        <f>O28/N28-1</f>
+        <v>0.25</v>
       </c>
       <c r="P47" s="12">
         <v>0.1</v>
@@ -6337,24 +6377,24 @@
         <v>-0.80982821981027264</v>
       </c>
       <c r="Y47" s="12">
-        <f t="shared" ref="Y47:AC47" si="127">Y28/X28-1</f>
+        <f t="shared" ref="Y47:AC47" si="124">Y28/X28-1</f>
         <v>-9.2216429983821624E-2</v>
       </c>
       <c r="Z47" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="124"/>
         <v>0.18811881188118806</v>
       </c>
       <c r="AA47" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="124"/>
         <v>3.0583333333333336</v>
       </c>
       <c r="AB47" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="124"/>
         <v>0.78644763860369604</v>
       </c>
       <c r="AC47" s="12">
-        <f t="shared" si="127"/>
-        <v>0.17358620689655191</v>
+        <f t="shared" si="124"/>
+        <v>0.33362068965517255</v>
       </c>
       <c r="AD47" s="12">
         <v>0.15</v>
@@ -6386,58 +6426,59 @@
     </row>
     <row r="48" spans="2:209" x14ac:dyDescent="0.45">
       <c r="B48" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C48" s="12">
-        <f t="shared" ref="C48:N48" si="128">C29/C22</f>
+        <f t="shared" ref="C48:N48" si="125">C29/C22</f>
         <v>3.8730089461051713E-2</v>
       </c>
       <c r="D48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>3.3074935400516793E-2</v>
       </c>
       <c r="E48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>3.0721600381043105E-2</v>
       </c>
       <c r="F48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>2.7925719068747641E-2</v>
       </c>
       <c r="G48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>2.629582806573957E-2</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>5.8438012015292189E-2</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>7.296380090497738E-2</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>6.0170633138751685E-2</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>5.0057758952637657E-2</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>4.1830065359477121E-2</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>3.6498431708012549E-2</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>3.6871214116407688E-2</v>
       </c>
       <c r="O48" s="12">
-        <v>0.05</v>
+        <f t="shared" ref="O48" si="126">O29/O22</f>
+        <v>3.3543448896893292E-2</v>
       </c>
       <c r="P48" s="12">
         <v>0.05</v>
@@ -6453,28 +6494,28 @@
         <v>1.8478473916445297E-2</v>
       </c>
       <c r="X48" s="12">
-        <f t="shared" ref="X48:AC48" si="129">X29/X22</f>
+        <f t="shared" ref="X48:AC48" si="127">X29/X22</f>
         <v>2.9607846292481973E-2</v>
       </c>
       <c r="Y48" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>6.5001888217522646E-2</v>
       </c>
       <c r="Z48" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>3.2070157470234291E-2</v>
       </c>
       <c r="AA48" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>5.6295017330464249E-2</v>
       </c>
       <c r="AB48" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>4.0583288326518016E-2</v>
       </c>
       <c r="AC48" s="12">
-        <f t="shared" si="129"/>
-        <v>3.4999999999999996E-2</v>
+        <f t="shared" si="127"/>
+        <v>3.4674152267084341E-2</v>
       </c>
       <c r="AD48" s="12">
         <v>0.04</v>
@@ -6506,49 +6547,50 @@
     </row>
     <row r="49" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B49" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12">
-        <f t="shared" ref="F49:N49" si="130">F30/E30-1</f>
+        <f t="shared" ref="F49:M49" si="128">F30/E30-1</f>
         <v>4.2215336948102422E-2</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="128"/>
         <v>3.1586770717205503E-2</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="128"/>
         <v>8.0691642651296691E-2</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="128"/>
         <v>0.15966666666666662</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="128"/>
         <v>-0.13193446392641561</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="128"/>
         <v>3.9735099337748325E-2</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="128"/>
         <v>0.13057324840764339</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="128"/>
         <v>5.3521126760563309E-2</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="130"/>
+        <f>N30/M30-1</f>
         <v>4.0106951871657692E-2</v>
       </c>
       <c r="O49" s="12">
-        <v>0.05</v>
+        <f>O30/N30-1</f>
+        <v>1.799485861182526E-2</v>
       </c>
       <c r="P49" s="12">
         <v>0.05</v>
@@ -6564,20 +6606,20 @@
         <v>-0.60269453156622466</v>
       </c>
       <c r="Z49" s="12">
-        <f t="shared" ref="Z49:AC49" si="131">Z30/Y30-1</f>
+        <f t="shared" ref="Z49:AC49" si="129">Z30/Y30-1</f>
         <v>1.3084803642572567</v>
       </c>
       <c r="AA49" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>8.7113740959896546E-3</v>
       </c>
       <c r="AB49" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>0.16669382434414204</v>
       </c>
       <c r="AC49" s="12">
-        <f t="shared" si="131"/>
-        <v>0.22937888006284912</v>
+        <f t="shared" si="129"/>
+        <v>0.19190607541899429</v>
       </c>
       <c r="AD49" s="12">
         <v>0.3</v>
@@ -6609,49 +6651,50 @@
     </row>
     <row r="50" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B50" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12">
-        <f t="shared" ref="F50:N50" si="132">F31/E31-1</f>
+        <f t="shared" ref="F50:M50" si="130">F31/E31-1</f>
         <v>0.11633011413520622</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>5.5839559575304731E-2</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0.45251396648044695</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0.3502564102564103</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>-8.6593239650588738E-2</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>-8.5239085239085188E-2</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0.20454545454545459</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0.1132075471698113</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="132"/>
+        <f>N31/M31-1</f>
         <v>5.7627118644067776E-2</v>
       </c>
       <c r="O50" s="12">
-        <v>0.1</v>
+        <f>O31/N31-1</f>
+        <v>8.4935897435897356E-2</v>
       </c>
       <c r="P50" s="12">
         <v>0.1</v>
@@ -6667,16 +6710,16 @@
         <v>0.80714738845421863</v>
       </c>
       <c r="AA50" s="12">
-        <f t="shared" ref="AA50:AC50" si="133">AA31/Z31-1</f>
+        <f t="shared" ref="AA50:AC50" si="131">AA31/Z31-1</f>
         <v>0.94851392464310846</v>
       </c>
       <c r="AB50" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="131"/>
         <v>0.31155416766754729</v>
       </c>
       <c r="AC50" s="12">
-        <f t="shared" si="133"/>
-        <v>0.45860000000000034</v>
+        <f t="shared" si="131"/>
+        <v>0.43862500000000004</v>
       </c>
       <c r="AD50" s="12">
         <v>0.3</v>
@@ -6710,69 +6753,65 @@
       <c r="B52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N52" s="3">
-        <f>N65-N71</f>
-        <v>-18</v>
-      </c>
       <c r="O52" s="3">
-        <f>N52+O38</f>
-        <v>7.4496148799993307</v>
+        <f>O65-O71</f>
+        <v>-414</v>
       </c>
       <c r="P52" s="3">
         <f>O52+P38</f>
-        <v>204.2854627199992</v>
+        <v>-238.03292616000002</v>
       </c>
       <c r="Q52" s="3">
         <f>P52+Q38</f>
-        <v>567.45142589999887</v>
+        <v>105.28020095999958</v>
       </c>
       <c r="R52" s="3">
         <f>Q52+R38</f>
-        <v>1003.2701268989986</v>
+        <v>522.33914159999938</v>
       </c>
       <c r="AB52" s="3">
         <f>N52</f>
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" ref="AC52:AL52" si="134">AB52+AC38</f>
-        <v>1003.2701268989986</v>
+        <f>R52</f>
+        <v>522.33914159999938</v>
       </c>
       <c r="AD52" s="3">
-        <f t="shared" si="134"/>
-        <v>5312.7979785850885</v>
+        <f t="shared" ref="AD52:AL52" si="132">AC52+AD38</f>
+        <v>5144.0395080298786</v>
       </c>
       <c r="AE52" s="3">
-        <f t="shared" si="134"/>
-        <v>13516.400801595464</v>
+        <f t="shared" si="132"/>
+        <v>13889.702196016346</v>
       </c>
       <c r="AF52" s="3">
-        <f t="shared" si="134"/>
-        <v>28505.131187274426</v>
+        <f t="shared" si="132"/>
+        <v>29928.217140110737</v>
       </c>
       <c r="AG52" s="3">
-        <f t="shared" si="134"/>
-        <v>49036.993391069525</v>
+        <f t="shared" si="132"/>
+        <v>51903.77322169322</v>
       </c>
       <c r="AH52" s="3">
-        <f t="shared" si="134"/>
-        <v>79049.408929983794</v>
+        <f t="shared" si="132"/>
+        <v>84152.150244387507</v>
       </c>
       <c r="AI52" s="3">
-        <f t="shared" si="134"/>
-        <v>122014.38410427218</v>
+        <f t="shared" si="132"/>
+        <v>130363.64965603477</v>
       </c>
       <c r="AJ52" s="3">
-        <f t="shared" si="134"/>
-        <v>181740.79677826408</v>
+        <f t="shared" si="132"/>
+        <v>194686.20467052524</v>
       </c>
       <c r="AK52" s="3">
-        <f t="shared" si="134"/>
-        <v>262599.83941986458</v>
+        <f t="shared" si="132"/>
+        <v>282261.50154923677</v>
       </c>
       <c r="AL52" s="3">
-        <f t="shared" si="134"/>
-        <v>369484.09689026658</v>
+        <f t="shared" si="132"/>
+        <v>398279.50594765402</v>
       </c>
     </row>
     <row r="53" spans="2:42" x14ac:dyDescent="0.45">
@@ -6790,6 +6829,9 @@
       <c r="N54" s="3">
         <v>287</v>
       </c>
+      <c r="O54" s="3">
+        <v>353</v>
+      </c>
       <c r="AO54" s="3" t="s">
         <v>133</v>
       </c>
@@ -6804,6 +6846,9 @@
       <c r="N55" s="3">
         <v>18</v>
       </c>
+      <c r="O55" s="3">
+        <v>45</v>
+      </c>
       <c r="AO55" s="3" t="s">
         <v>134</v>
       </c>
@@ -6818,11 +6863,14 @@
       <c r="N56" s="3">
         <v>690</v>
       </c>
+      <c r="O56" s="3">
+        <v>816</v>
+      </c>
       <c r="AO56" s="3" t="s">
         <v>135</v>
       </c>
       <c r="AP56" s="12">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="57" spans="2:42" x14ac:dyDescent="0.45">
@@ -6832,12 +6880,15 @@
       <c r="N57" s="3">
         <v>4717</v>
       </c>
+      <c r="O57" s="3">
+        <v>4717</v>
+      </c>
       <c r="AO57" s="3" t="s">
         <v>136</v>
       </c>
       <c r="AP57" s="3">
         <f>NPV(AP56,AC38:HA38)-Main!I8+Main!I7</f>
-        <v>197508.47570553178</v>
+        <v>335876.39775552851</v>
       </c>
     </row>
     <row r="58" spans="2:42" x14ac:dyDescent="0.45">
@@ -6847,12 +6898,15 @@
       <c r="N58" s="3">
         <v>754</v>
       </c>
+      <c r="O58" s="3">
+        <v>700</v>
+      </c>
       <c r="AO58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AP58" s="15">
         <f>AP57/Main!I5</f>
-        <v>227.54432684969098</v>
+        <v>386.06482500635462</v>
       </c>
     </row>
     <row r="59" spans="2:42" x14ac:dyDescent="0.45">
@@ -6863,12 +6917,16 @@
         <f>10365+1280</f>
         <v>11645</v>
       </c>
+      <c r="O59" s="3">
+        <f>10214+2283</f>
+        <v>12497</v>
+      </c>
       <c r="AO59" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AP59" s="12">
         <f>AP58/Main!I4-1</f>
-        <v>2.2809038745408294E-2</v>
+        <v>0.48469340078588874</v>
       </c>
     </row>
     <row r="60" spans="2:42" x14ac:dyDescent="0.45">
@@ -6879,6 +6937,10 @@
         <f>747+2324</f>
         <v>3071</v>
       </c>
+      <c r="O60" s="3">
+        <f>605+2141</f>
+        <v>2746</v>
+      </c>
     </row>
     <row r="61" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B61" s="5" t="s">
@@ -6887,6 +6949,9 @@
       <c r="N61" s="3">
         <v>221</v>
       </c>
+      <c r="O61" s="3">
+        <v>230</v>
+      </c>
     </row>
     <row r="62" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B62" s="5" t="s">
@@ -6895,6 +6960,9 @@
       <c r="N62" s="3">
         <v>99</v>
       </c>
+      <c r="O62" s="3">
+        <v>97</v>
+      </c>
       <c r="AO62" s="8"/>
     </row>
     <row r="63" spans="2:42" x14ac:dyDescent="0.45">
@@ -6904,6 +6972,9 @@
       <c r="N63" s="3">
         <v>794</v>
       </c>
+      <c r="O63" s="3">
+        <v>1155</v>
+      </c>
     </row>
     <row r="64" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B64" s="5" t="s">
@@ -6912,8 +6983,11 @@
       <c r="N64" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O64" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B65" s="5" t="s">
         <v>5</v>
       </c>
@@ -6921,24 +6995,34 @@
         <f>309+422</f>
         <v>731</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O65" s="3">
+        <f>249+223</f>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B66" s="5" t="s">
         <v>66</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B67" s="5" t="s">
         <v>67</v>
       </c>
       <c r="N67" s="3">
         <v>241</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O67" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B68" s="6" t="s">
         <v>68</v>
       </c>
@@ -6946,19 +7030,26 @@
         <f>SUM(N54:N67)</f>
         <v>23356</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O68" s="8">
+        <f>SUM(O54:O67)</f>
+        <v>24152</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B70" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B71" s="5" t="s">
         <v>70</v>
       </c>
@@ -6966,8 +7057,12 @@
         <f>588+161</f>
         <v>749</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O71" s="3">
+        <f>185+701</f>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B72" s="5" t="s">
         <v>71</v>
       </c>
@@ -6975,8 +7070,12 @@
         <f>3+644</f>
         <v>647</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O72" s="3">
+        <f>3+707</f>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B73" s="5" t="s">
         <v>72</v>
       </c>
@@ -6984,16 +7083,23 @@
         <f>88+29</f>
         <v>117</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O73" s="3">
+        <f>86+33</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B74" s="5" t="s">
         <v>73</v>
       </c>
       <c r="N74" s="3">
         <v>188</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O74" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B75" s="5" t="s">
         <v>74</v>
       </c>
@@ -7001,16 +7107,23 @@
         <f>15+871</f>
         <v>886</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O75" s="3">
+        <f>15+1016</f>
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B76" s="5" t="s">
         <v>75</v>
       </c>
       <c r="N76" s="3">
         <v>363</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O76" s="3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B77" s="5" t="s">
         <v>76</v>
       </c>
@@ -7018,16 +7131,23 @@
         <f>SUM(N70:N76)</f>
         <v>2950</v>
       </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O77" s="8">
+        <f>SUM(O70:O76)</f>
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="N78" s="3">
         <v>20406</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O78" s="3">
+        <v>20860</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B79" s="6" t="s">
         <v>78</v>
       </c>
@@ -7035,8 +7155,12 @@
         <f>N78+N77</f>
         <v>23356</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O79" s="8">
+        <f>O78+O77</f>
+        <v>24152</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B82" s="5" t="s">
         <v>48</v>
       </c>
@@ -7045,51 +7169,55 @@
         <v>-360.7</v>
       </c>
       <c r="D82" s="3">
-        <f t="shared" ref="D82:N82" si="135">D38</f>
+        <f t="shared" ref="D82:N82" si="133">D38</f>
         <v>-434.90000000000003</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>-67.200000000000102</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>-359.69000000000017</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>-185.70000000000016</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>-251</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>-346.70000000000027</v>
       </c>
       <c r="J82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>-188</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>36</v>
       </c>
       <c r="M82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>138</v>
       </c>
       <c r="N82" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O82" s="3">
+        <f>O38</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B83" s="5" t="s">
         <v>49</v>
       </c>
@@ -7129,16 +7257,19 @@
       <c r="N83" s="3">
         <v>175</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O83" s="3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B85" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B86" s="5" t="s">
         <v>29</v>
       </c>
@@ -7147,51 +7278,55 @@
         <v>-359</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" ref="D86:N86" si="136">D83+D37</f>
+        <f t="shared" ref="D86:N86" si="134">D83+D37</f>
         <v>-434.9</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>-67.2</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>-359.4</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>-186</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>-261</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>-363.6</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>-204</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>-15</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>21</v>
       </c>
       <c r="M86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>124</v>
       </c>
       <c r="N86" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>161</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O86" s="3">
+        <f>O83+O37</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B87" s="5" t="s">
         <v>83</v>
       </c>
@@ -7214,8 +7349,11 @@
       <c r="N87" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O87" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B88" s="5" t="s">
         <v>84</v>
       </c>
@@ -7243,8 +7381,12 @@
         <f>56+-19-1</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O88" s="3">
+        <f>56-21</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B89" s="5" t="s">
         <v>85</v>
       </c>
@@ -7272,8 +7414,12 @@
         <f>+-5+11+1-3</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O89" s="3">
+        <f>16-2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B90" s="5" t="s">
         <v>86</v>
       </c>
@@ -7295,8 +7441,11 @@
       <c r="N90" s="3">
         <v>161</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O90" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91" s="5" t="s">
         <v>57</v>
       </c>
@@ -7318,8 +7467,11 @@
       <c r="N91" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92" s="5" t="s">
         <v>87</v>
       </c>
@@ -7347,8 +7499,11 @@
         <f>+-33-22-105</f>
         <v>-160</v>
       </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O92" s="3">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93" s="5" t="s">
         <v>88</v>
       </c>
@@ -7375,8 +7530,12 @@
         <f>20-46-1</f>
         <v>-27</v>
       </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O93" s="3">
+        <f>-109-21-45+24-4</f>
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94" s="5" t="s">
         <v>89</v>
       </c>
@@ -7404,8 +7563,12 @@
         <f>-118-49+52+2+16+8+22</f>
         <v>-67</v>
       </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O94" s="3">
+        <f>-366-48+33-17+75+1+145</f>
+        <v>-177</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B95" s="5" t="s">
         <v>90</v>
       </c>
@@ -7427,61 +7590,68 @@
       <c r="N95" s="3">
         <v>-20</v>
       </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O95" s="3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B96" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C96" s="8">
-        <f t="shared" ref="C96:M96" si="137">SUM(C86:C95)</f>
+        <f t="shared" ref="C96:M96" si="135">SUM(C86:C95)</f>
         <v>-359</v>
       </c>
       <c r="D96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>-434.9</v>
       </c>
       <c r="E96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>-67.2</v>
       </c>
       <c r="F96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>-359.4</v>
       </c>
       <c r="G96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>-186</v>
       </c>
       <c r="H96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>-332</v>
       </c>
       <c r="I96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>-363.6</v>
       </c>
       <c r="J96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>-301</v>
       </c>
       <c r="K96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>69</v>
       </c>
       <c r="L96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>219</v>
       </c>
       <c r="M96" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>182</v>
       </c>
       <c r="N96" s="8">
         <f>SUM(N86:N95)</f>
         <v>174</v>
       </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O96" s="8">
+        <f>SUM(O86:O95)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B98" s="5" t="s">
         <v>92</v>
       </c>
@@ -7508,8 +7678,12 @@
         <f>-87+4</f>
         <v>-83</v>
       </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O98" s="3">
+        <f>-146+2</f>
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B99" s="5" t="s">
         <v>62</v>
       </c>
@@ -7537,8 +7711,12 @@
         <f>-452+308+7806-6951-535+150-435</f>
         <v>-109</v>
       </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O99" s="3">
+        <f>-130+612+6840-7651+25</f>
+        <v>-304</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B100" s="5" t="s">
         <v>93</v>
       </c>
@@ -7560,8 +7738,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B101" s="5" t="s">
         <v>17</v>
       </c>
@@ -7584,61 +7765,68 @@
         <f>116</f>
         <v>116</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O101" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B102" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C102" s="8">
-        <f t="shared" ref="C102:M102" si="138">SUM(C98:C101)</f>
+        <f t="shared" ref="C102:M102" si="136">SUM(C98:C101)</f>
         <v>0</v>
       </c>
       <c r="D102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="E102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="F102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="G102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="H102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>155</v>
       </c>
       <c r="I102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="J102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>-9</v>
       </c>
       <c r="K102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>37</v>
       </c>
       <c r="L102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>-70</v>
       </c>
       <c r="M102" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>-237</v>
       </c>
       <c r="N102" s="8">
         <f>SUM(N98:N101)</f>
         <v>-76</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O102" s="8">
+        <f>SUM(O98:O101)</f>
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B104" s="5" t="s">
         <v>95</v>
       </c>
@@ -7660,8 +7848,11 @@
       <c r="N104" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B105" s="5" t="s">
         <v>97</v>
       </c>
@@ -7683,8 +7874,11 @@
       <c r="N105" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B106" s="5" t="s">
         <v>96</v>
       </c>
@@ -7706,8 +7900,11 @@
       <c r="N106" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B107" s="5" t="s">
         <v>98</v>
       </c>
@@ -7731,8 +7928,11 @@
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B108" s="5" t="s">
         <v>99</v>
       </c>
@@ -7760,8 +7960,12 @@
         <f>-38-20</f>
         <v>-58</v>
       </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O108" s="3">
+        <f>-45-24</f>
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B109" s="5" t="s">
         <v>88</v>
       </c>
@@ -7783,61 +7987,68 @@
       <c r="N109" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B110" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C110" s="3">
-        <f t="shared" ref="C110:M110" si="139">SUM(C104:C109)</f>
+        <f t="shared" ref="C110:M110" si="137">SUM(C104:C109)</f>
         <v>0</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="H110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>-29</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="J110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>-46</v>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>-83</v>
       </c>
       <c r="L110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>-37</v>
       </c>
       <c r="M110" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>-38</v>
       </c>
       <c r="N110" s="3">
         <f>SUM(N104:N109)</f>
         <v>-48</v>
       </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O110" s="3">
+        <f>SUM(O104:O109)</f>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B111" s="5" t="s">
         <v>101</v>
       </c>
@@ -7856,8 +8067,11 @@
       <c r="N111" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B112" s="5" t="s">
         <v>102</v>
       </c>
@@ -7867,32 +8081,36 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8">
-        <f t="shared" ref="H112:M112" si="140">H111+H110+H102+H96</f>
+        <f t="shared" ref="H112:M112" si="138">H111+H110+H102+H96</f>
         <v>-206</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>-362</v>
       </c>
       <c r="K112" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>22</v>
       </c>
       <c r="L112" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>113</v>
       </c>
       <c r="M112" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>-94</v>
       </c>
       <c r="N112" s="8">
         <f>N111+N110+N102+N96</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O112" s="8">
+        <f>O111+O110+O102+O96</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B114" s="5" t="s">
         <v>103</v>
       </c>
@@ -7911,20 +8129,24 @@
         <v>-325</v>
       </c>
       <c r="K114" s="8">
-        <f t="shared" ref="K114:N114" si="141">K96+K98</f>
+        <f t="shared" ref="K114:O114" si="139">K96+K98</f>
         <v>45</v>
       </c>
       <c r="L114" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="139"/>
         <v>184</v>
       </c>
       <c r="M114" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="139"/>
         <v>122</v>
       </c>
       <c r="N114" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="139"/>
         <v>91</v>
+      </c>
+      <c r="O114" s="8">
+        <f t="shared" si="139"/>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7937,6 +8159,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Z6:AB10 Z12:AB14 AC10 AC13" formulaRange="1"/>
+    <ignoredError sqref="Z11:AB11" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AC11" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>